--- a/data/trans_orig/ip32_a_an-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/ip32_a_an-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0867D15D-5ABF-4124-A5F0-5DCD73B2E4AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A1F6F21C-4A9E-4E0C-80DD-957DAD0BBA59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{45DAC419-0E59-4560-9548-CD796194C5FA}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{34590514-19AF-4D76-B516-50B022BFDA9F}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -37,9 +37,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1790" uniqueCount="412">
-  <si>
-    <t>menores según el año que llegó a andalucía en 2012 (Tasa respuesta: 2,67%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1792" uniqueCount="413">
+  <si>
+    <t>Menores según el año que llegó a Andalucía en 2012 (Tasa respuesta: 2,67%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -132,1147 +132,1150 @@
     <t>17,29%</t>
   </si>
   <si>
-    <t>68,24%</t>
+    <t>71,51%</t>
   </si>
   <si>
     <t>7,25%</t>
   </si>
   <si>
-    <t>30,9%</t>
+    <t>37,81%</t>
   </si>
   <si>
     <t>13,63%</t>
   </si>
   <si>
-    <t>62,38%</t>
+    <t>61,39%</t>
   </si>
   <si>
     <t>5,72%</t>
   </si>
   <si>
-    <t>25,81%</t>
+    <t>25,46%</t>
   </si>
   <si>
     <t>38,96%</t>
   </si>
   <si>
-    <t>10,17%</t>
-  </si>
-  <si>
-    <t>83,24%</t>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>83,72%</t>
   </si>
   <si>
     <t>18,62%</t>
   </si>
   <si>
-    <t>71,69%</t>
+    <t>72,36%</t>
   </si>
   <si>
     <t>30,43%</t>
   </si>
   <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>58,31%</t>
+  </si>
+  <si>
+    <t>18,1%</t>
+  </si>
+  <si>
+    <t>69,16%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>38,29%</t>
+  </si>
+  <si>
+    <t>29,87%</t>
+  </si>
+  <si>
+    <t>73,72%</t>
+  </si>
+  <si>
+    <t>17,34%</t>
+  </si>
+  <si>
+    <t>43,06%</t>
+  </si>
+  <si>
+    <t>16,54%</t>
+  </si>
+  <si>
+    <t>73,63%</t>
+  </si>
+  <si>
+    <t>9,6%</t>
+  </si>
+  <si>
+    <t>42,59%</t>
+  </si>
+  <si>
+    <t>14,63%</t>
+  </si>
+  <si>
+    <t>59,49%</t>
+  </si>
+  <si>
+    <t>14,26%</t>
+  </si>
+  <si>
+    <t>62,49%</t>
+  </si>
+  <si>
+    <t>14,47%</t>
+  </si>
+  <si>
+    <t>39,47%</t>
+  </si>
+  <si>
+    <t>68,99%</t>
+  </si>
+  <si>
+    <t>32,18%</t>
+  </si>
+  <si>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>17,08%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>9,9%</t>
+  </si>
+  <si>
+    <t>39,87%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>22,69%</t>
+  </si>
+  <si>
+    <t>19,4%</t>
+  </si>
+  <si>
+    <t>58,2%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>36,87%</t>
+  </si>
+  <si>
+    <t>14,17%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>35,29%</t>
+  </si>
+  <si>
+    <t>22,45%</t>
+  </si>
+  <si>
+    <t>57,74%</t>
+  </si>
+  <si>
+    <t>9,96%</t>
+  </si>
+  <si>
+    <t>34,15%</t>
+  </si>
+  <si>
+    <t>31,89%</t>
+  </si>
+  <si>
+    <t>10,13%</t>
+  </si>
+  <si>
+    <t>63,0%</t>
+  </si>
+  <si>
+    <t>17,74%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>40,22%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>39,16%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>26,28%</t>
+  </si>
+  <si>
+    <t>22,59%</t>
+  </si>
+  <si>
+    <t>58,14%</t>
+  </si>
+  <si>
+    <t>10,02%</t>
+  </si>
+  <si>
+    <t>30,51%</t>
+  </si>
+  <si>
+    <t>10,2%</t>
+  </si>
+  <si>
+    <t>41,42%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>27,82%</t>
+  </si>
+  <si>
+    <t>50,27%</t>
+  </si>
+  <si>
+    <t>10,79%</t>
+  </si>
+  <si>
+    <t>33,21%</t>
+  </si>
+  <si>
+    <t>34,78%</t>
+  </si>
+  <si>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>79,47%</t>
+  </si>
+  <si>
+    <t>15,44%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>38,28%</t>
+  </si>
+  <si>
+    <t>12,56%</t>
+  </si>
+  <si>
+    <t>49,7%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>27,34%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>50,45%</t>
+  </si>
+  <si>
+    <t>12,97%</t>
+  </si>
+  <si>
+    <t>51,56%</t>
+  </si>
+  <si>
+    <t>11,66%</t>
+  </si>
+  <si>
+    <t>34,4%</t>
+  </si>
+  <si>
+    <t>11,81%</t>
+  </si>
+  <si>
+    <t>54,88%</t>
+  </si>
+  <si>
+    <t>9,94%</t>
+  </si>
+  <si>
+    <t>49,86%</t>
+  </si>
+  <si>
+    <t>10,98%</t>
+  </si>
+  <si>
+    <t>33,71%</t>
+  </si>
+  <si>
+    <t>18,17%</t>
+  </si>
+  <si>
+    <t>50,76%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>25,11%</t>
+  </si>
+  <si>
+    <t>50,04%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>28,66%</t>
+  </si>
+  <si>
+    <t>21,29%</t>
+  </si>
+  <si>
+    <t>59,3%</t>
+  </si>
+  <si>
+    <t>12,48%</t>
+  </si>
+  <si>
+    <t>51,49%</t>
+  </si>
+  <si>
+    <t>17,38%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>20,69%</t>
+  </si>
+  <si>
+    <t>58,58%</t>
+  </si>
+  <si>
+    <t>44,04%</t>
+  </si>
+  <si>
+    <t>15,92%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>41,71%</t>
+  </si>
+  <si>
+    <t>26,75%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>56,91%</t>
+  </si>
+  <si>
+    <t>14,88%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>37,48%</t>
+  </si>
+  <si>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>37,9%</t>
+  </si>
+  <si>
+    <t>11,39%</t>
+  </si>
+  <si>
+    <t>46,29%</t>
+  </si>
+  <si>
+    <t>9,98%</t>
+  </si>
+  <si>
+    <t>30,86%</t>
+  </si>
+  <si>
+    <t>12,14%</t>
+  </si>
+  <si>
+    <t>58,78%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>26,94%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>22,15%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>27,72%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>16,7%</t>
+  </si>
+  <si>
+    <t>11,05%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>27,25%</t>
+  </si>
+  <si>
+    <t>15,82%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>33,69%</t>
+  </si>
+  <si>
+    <t>13,31%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>24,86%</t>
+  </si>
+  <si>
+    <t>15,51%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>31,43%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>15,64%</t>
+  </si>
+  <si>
+    <t>20,15%</t>
+  </si>
+  <si>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>38,87%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>28,19%</t>
+  </si>
+  <si>
+    <t>14,41%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>25,44%</t>
+  </si>
+  <si>
+    <t>15,1%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>33,45%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>24,66%</t>
+  </si>
+  <si>
+    <t>11,62%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>22,5%</t>
+  </si>
+  <si>
+    <t>15,16%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>33,74%</t>
+  </si>
+  <si>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>27,44%</t>
+  </si>
+  <si>
+    <t>12,77%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>23,63%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>27,71%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>15,17%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>14,48%</t>
+  </si>
+  <si>
+    <t>16,78%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>34,23%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>18,81%</t>
+  </si>
+  <si>
+    <t>10,56%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>21,33%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>21,1%</t>
+  </si>
+  <si>
+    <t>17,01%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>36,29%</t>
+  </si>
+  <si>
+    <t>11,71%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>22,4%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>30,48%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>16,17%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según el año que llegó a Andalucía en 2015 (Tasa respuesta: 1,65%)</t>
+  </si>
+  <si>
+    <t>36,25%</t>
+  </si>
+  <si>
+    <t>25,24%</t>
+  </si>
+  <si>
+    <t>80,7%</t>
+  </si>
+  <si>
+    <t>50,48%</t>
+  </si>
+  <si>
+    <t>33,77%</t>
+  </si>
+  <si>
+    <t>82,31%</t>
+  </si>
+  <si>
+    <t>27,35%</t>
+  </si>
+  <si>
+    <t>81,92%</t>
+  </si>
+  <si>
+    <t>18,11%</t>
+  </si>
+  <si>
+    <t>72,98%</t>
+  </si>
+  <si>
+    <t>49,52%</t>
+  </si>
+  <si>
+    <t>16,73%</t>
+  </si>
+  <si>
+    <t>69,75%</t>
+  </si>
+  <si>
+    <t>68,28%</t>
+  </si>
+  <si>
+    <t>11,99%</t>
+  </si>
+  <si>
+    <t>58,74%</t>
+  </si>
+  <si>
+    <t>29,3%</t>
+  </si>
+  <si>
+    <t>72,99%</t>
+  </si>
+  <si>
+    <t>38,42%</t>
+  </si>
+  <si>
+    <t>24,33%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>29,39%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>16,19%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>14,23%</t>
+  </si>
+  <si>
+    <t>59,11%</t>
+  </si>
+  <si>
+    <t>11,58%</t>
+  </si>
+  <si>
+    <t>45,09%</t>
+  </si>
+  <si>
+    <t>12,7%</t>
+  </si>
+  <si>
+    <t>33,17%</t>
+  </si>
+  <si>
+    <t>15,05%</t>
+  </si>
+  <si>
+    <t>66,0%</t>
+  </si>
+  <si>
+    <t>42,56%</t>
+  </si>
+  <si>
+    <t>12,25%</t>
+  </si>
+  <si>
+    <t>36,47%</t>
+  </si>
+  <si>
+    <t>10,28%</t>
+  </si>
+  <si>
+    <t>48,3%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>34,43%</t>
+  </si>
+  <si>
+    <t>8,14%</t>
+  </si>
+  <si>
+    <t>24,75%</t>
+  </si>
+  <si>
+    <t>67,0%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>25,92%</t>
+  </si>
+  <si>
+    <t>30,06%</t>
+  </si>
+  <si>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>61,69%</t>
+  </si>
+  <si>
+    <t>17,36%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>43,48%</t>
+  </si>
+  <si>
+    <t>17,4%</t>
+  </si>
+  <si>
+    <t>51,44%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>35,26%</t>
+  </si>
+  <si>
+    <t>29,71%</t>
+  </si>
+  <si>
+    <t>74,35%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>41,94%</t>
+  </si>
+  <si>
+    <t>17,79%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>44,51%</t>
+  </si>
+  <si>
+    <t>61,84%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>32,28%</t>
+  </si>
+  <si>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>21,23%</t>
+  </si>
+  <si>
+    <t>85,9%</t>
+  </si>
+  <si>
+    <t>14,7%</t>
+  </si>
+  <si>
+    <t>69,65%</t>
+  </si>
+  <si>
+    <t>13,37%</t>
+  </si>
+  <si>
+    <t>57,62%</t>
+  </si>
+  <si>
+    <t>13,94%</t>
+  </si>
+  <si>
+    <t>72,07%</t>
+  </si>
+  <si>
+    <t>9,65%</t>
+  </si>
+  <si>
+    <t>49,6%</t>
+  </si>
+  <si>
+    <t>56,52%</t>
+  </si>
+  <si>
+    <t>43,22%</t>
+  </si>
+  <si>
+    <t>86,11%</t>
+  </si>
+  <si>
+    <t>47,31%</t>
+  </si>
+  <si>
+    <t>14,75%</t>
+  </si>
+  <si>
+    <t>87,34%</t>
+  </si>
+  <si>
+    <t>21,61%</t>
+  </si>
+  <si>
+    <t>80,0%</t>
+  </si>
+  <si>
+    <t>14,97%</t>
+  </si>
+  <si>
+    <t>59,46%</t>
+  </si>
+  <si>
+    <t>37,99%</t>
+  </si>
+  <si>
+    <t>19,01%</t>
+  </si>
+  <si>
+    <t>62,01%</t>
+  </si>
+  <si>
+    <t>31,04%</t>
+  </si>
+  <si>
+    <t>83,08%</t>
+  </si>
+  <si>
+    <t>62,03%</t>
+  </si>
+  <si>
+    <t>30,98%</t>
+  </si>
+  <si>
+    <t>83,06%</t>
+  </si>
+  <si>
+    <t>37,97%</t>
+  </si>
+  <si>
+    <t>18,96%</t>
+  </si>
+  <si>
+    <t>79,44%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>22,75%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>28,06%</t>
+  </si>
+  <si>
     <t>8,96%</t>
   </si>
   <si>
-    <t>63,13%</t>
-  </si>
-  <si>
-    <t>18,1%</t>
-  </si>
-  <si>
-    <t>70,81%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>37,21%</t>
-  </si>
-  <si>
-    <t>29,87%</t>
-  </si>
-  <si>
-    <t>71,79%</t>
-  </si>
-  <si>
-    <t>17,34%</t>
-  </si>
-  <si>
-    <t>48,42%</t>
-  </si>
-  <si>
-    <t>16,54%</t>
-  </si>
-  <si>
-    <t>62,76%</t>
-  </si>
-  <si>
-    <t>9,6%</t>
-  </si>
-  <si>
-    <t>36,96%</t>
-  </si>
-  <si>
-    <t>14,63%</t>
-  </si>
-  <si>
-    <t>58,11%</t>
-  </si>
-  <si>
-    <t>14,26%</t>
-  </si>
-  <si>
-    <t>72,07%</t>
-  </si>
-  <si>
-    <t>14,47%</t>
-  </si>
-  <si>
-    <t>46,02%</t>
-  </si>
-  <si>
-    <t>68,05%</t>
-  </si>
-  <si>
-    <t>31,74%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>17,08%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>41,16%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>32,06%</t>
-  </si>
-  <si>
-    <t>19,4%</t>
-  </si>
-  <si>
-    <t>50,59%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>36,28%</t>
-  </si>
-  <si>
-    <t>14,17%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>34,51%</t>
-  </si>
-  <si>
-    <t>22,45%</t>
-  </si>
-  <si>
-    <t>58,78%</t>
-  </si>
-  <si>
-    <t>9,96%</t>
-  </si>
-  <si>
-    <t>30,18%</t>
-  </si>
-  <si>
-    <t>31,89%</t>
-  </si>
-  <si>
-    <t>71,56%</t>
-  </si>
-  <si>
-    <t>17,74%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>46,5%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>38,12%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>25,59%</t>
-  </si>
-  <si>
-    <t>22,59%</t>
-  </si>
-  <si>
-    <t>60,73%</t>
-  </si>
-  <si>
-    <t>10,02%</t>
-  </si>
-  <si>
-    <t>30,78%</t>
-  </si>
-  <si>
-    <t>10,2%</t>
-  </si>
-  <si>
-    <t>40,4%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>28,81%</t>
-  </si>
-  <si>
-    <t>58,55%</t>
-  </si>
-  <si>
-    <t>10,79%</t>
-  </si>
-  <si>
-    <t>28,07%</t>
-  </si>
-  <si>
-    <t>34,78%</t>
-  </si>
-  <si>
-    <t>9,66%</t>
-  </si>
-  <si>
-    <t>71,45%</t>
-  </si>
-  <si>
-    <t>15,44%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>37,59%</t>
-  </si>
-  <si>
-    <t>12,56%</t>
-  </si>
-  <si>
-    <t>50,35%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>26,8%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>50,49%</t>
-  </si>
-  <si>
-    <t>12,97%</t>
-  </si>
-  <si>
-    <t>50,3%</t>
-  </si>
-  <si>
-    <t>11,66%</t>
-  </si>
-  <si>
-    <t>33,46%</t>
-  </si>
-  <si>
-    <t>11,81%</t>
-  </si>
-  <si>
-    <t>45,5%</t>
-  </si>
-  <si>
-    <t>9,94%</t>
-  </si>
-  <si>
-    <t>47,23%</t>
-  </si>
-  <si>
-    <t>10,98%</t>
-  </si>
-  <si>
-    <t>39,64%</t>
-  </si>
-  <si>
-    <t>18,17%</t>
-  </si>
-  <si>
-    <t>50,19%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>28,26%</t>
-  </si>
-  <si>
-    <t>58,44%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>25,46%</t>
-  </si>
-  <si>
-    <t>21,29%</t>
-  </si>
-  <si>
-    <t>55,09%</t>
-  </si>
-  <si>
-    <t>12,48%</t>
-  </si>
-  <si>
-    <t>51,13%</t>
-  </si>
-  <si>
-    <t>17,38%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>43,82%</t>
-  </si>
-  <si>
-    <t>20,69%</t>
-  </si>
-  <si>
-    <t>54,81%</t>
-  </si>
-  <si>
-    <t>44,49%</t>
-  </si>
-  <si>
-    <t>15,92%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>38,92%</t>
-  </si>
-  <si>
-    <t>26,75%</t>
-  </si>
-  <si>
-    <t>8,23%</t>
-  </si>
-  <si>
-    <t>57,8%</t>
-  </si>
-  <si>
-    <t>14,88%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>36,01%</t>
-  </si>
-  <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>48,29%</t>
-  </si>
-  <si>
-    <t>11,39%</t>
-  </si>
-  <si>
-    <t>44,6%</t>
-  </si>
-  <si>
-    <t>9,98%</t>
-  </si>
-  <si>
-    <t>31,32%</t>
-  </si>
-  <si>
-    <t>12,14%</t>
-  </si>
-  <si>
-    <t>48,27%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>22,69%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>24,71%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>24,01%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>16,71%</t>
-  </si>
-  <si>
-    <t>11,05%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>30,59%</t>
-  </si>
-  <si>
-    <t>15,82%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>35,32%</t>
-  </si>
-  <si>
-    <t>13,31%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>25,85%</t>
-  </si>
-  <si>
-    <t>15,51%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>32,78%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>20,15%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>38,78%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>27,03%</t>
-  </si>
-  <si>
-    <t>14,41%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>25,61%</t>
-  </si>
-  <si>
-    <t>15,1%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>33,76%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>22,66%</t>
-  </si>
-  <si>
-    <t>11,62%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>22,92%</t>
-  </si>
-  <si>
-    <t>15,16%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>31,83%</t>
-  </si>
-  <si>
-    <t>10,11%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>25,48%</t>
-  </si>
-  <si>
-    <t>12,77%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>23,59%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>24,39%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>15,19%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>16,78%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>34,5%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>18,53%</t>
-  </si>
-  <si>
-    <t>10,56%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>21,24%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>21,74%</t>
-  </si>
-  <si>
-    <t>17,01%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>34,7%</t>
-  </si>
-  <si>
-    <t>11,71%</t>
+    <t>28,9%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>21,75%</t>
+  </si>
+  <si>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>35,91%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>13,82%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>34,94%</t>
+  </si>
+  <si>
+    <t>11,45%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>22,65%</t>
+  </si>
+  <si>
+    <t>12,89%</t>
+  </si>
+  <si>
+    <t>34,25%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>36,49%</t>
+  </si>
+  <si>
+    <t>14,14%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>28,41%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>26,31%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>30,52%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>21,57%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>21,93%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>27,43%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>16,63%</t>
+  </si>
+  <si>
+    <t>42,68%</t>
+  </si>
+  <si>
+    <t>11,18%</t>
+  </si>
+  <si>
+    <t>34,36%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>16,36%</t>
+  </si>
+  <si>
+    <t>47,03%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>29,37%</t>
+  </si>
+  <si>
+    <t>10,46%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>26,95%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>26,9%</t>
+  </si>
+  <si>
+    <t>15,47%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>39,23%</t>
+  </si>
+  <si>
+    <t>10,81%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>27,67%</t>
   </si>
   <si>
     <t>4,9%</t>
   </si>
   <si>
-    <t>21,4%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>29,43%</t>
-  </si>
-  <si>
-    <t>14,49%</t>
-  </si>
-  <si>
-    <t>menores según el año que llegó a andalucía en 2015 (Tasa respuesta: 1,65%)</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>25,24%</t>
-  </si>
-  <si>
-    <t>80,7%</t>
-  </si>
-  <si>
-    <t>50,48%</t>
-  </si>
-  <si>
-    <t>33,77%</t>
-  </si>
-  <si>
-    <t>87,5%</t>
-  </si>
-  <si>
-    <t>27,35%</t>
-  </si>
-  <si>
-    <t>81,92%</t>
-  </si>
-  <si>
-    <t>18,11%</t>
-  </si>
-  <si>
-    <t>71,61%</t>
-  </si>
-  <si>
-    <t>49,52%</t>
-  </si>
-  <si>
-    <t>16,73%</t>
-  </si>
-  <si>
-    <t>67,45%</t>
-  </si>
-  <si>
-    <t>68,28%</t>
-  </si>
-  <si>
-    <t>11,99%</t>
-  </si>
-  <si>
-    <t>57,93%</t>
-  </si>
-  <si>
-    <t>29,3%</t>
-  </si>
-  <si>
-    <t>69,89%</t>
-  </si>
-  <si>
-    <t>38,34%</t>
-  </si>
-  <si>
-    <t>27,31%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>29,66%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>16,49%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>14,23%</t>
-  </si>
-  <si>
-    <t>64,36%</t>
-  </si>
-  <si>
-    <t>11,58%</t>
-  </si>
-  <si>
-    <t>62,82%</t>
-  </si>
-  <si>
-    <t>12,7%</t>
-  </si>
-  <si>
-    <t>42,51%</t>
-  </si>
-  <si>
-    <t>15,05%</t>
-  </si>
-  <si>
-    <t>59,9%</t>
-  </si>
-  <si>
-    <t>42,39%</t>
-  </si>
-  <si>
-    <t>12,25%</t>
-  </si>
-  <si>
-    <t>36,7%</t>
-  </si>
-  <si>
-    <t>10,28%</t>
-  </si>
-  <si>
-    <t>48,37%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>29,91%</t>
-  </si>
-  <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>23,18%</t>
-  </si>
-  <si>
-    <t>71,3%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>27,91%</t>
-  </si>
-  <si>
-    <t>30,06%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>64,25%</t>
-  </si>
-  <si>
-    <t>17,36%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>43,03%</t>
-  </si>
-  <si>
-    <t>17,4%</t>
-  </si>
-  <si>
-    <t>48,2%</t>
-  </si>
-  <si>
-    <t>10,05%</t>
-  </si>
-  <si>
-    <t>33,21%</t>
-  </si>
-  <si>
-    <t>29,71%</t>
-  </si>
-  <si>
-    <t>74,43%</t>
-  </si>
-  <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>40,93%</t>
-  </si>
-  <si>
-    <t>17,79%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>42,13%</t>
-  </si>
-  <si>
-    <t>61,75%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>21,23%</t>
-  </si>
-  <si>
-    <t>85,9%</t>
-  </si>
-  <si>
-    <t>14,7%</t>
-  </si>
-  <si>
-    <t>70,18%</t>
-  </si>
-  <si>
-    <t>43,48%</t>
-  </si>
-  <si>
-    <t>13,37%</t>
-  </si>
-  <si>
-    <t>51,94%</t>
-  </si>
-  <si>
-    <t>13,94%</t>
-  </si>
-  <si>
-    <t>9,65%</t>
-  </si>
-  <si>
-    <t>47,29%</t>
-  </si>
-  <si>
-    <t>56,52%</t>
-  </si>
-  <si>
-    <t>43,22%</t>
-  </si>
-  <si>
-    <t>47,31%</t>
-  </si>
-  <si>
-    <t>15,17%</t>
-  </si>
-  <si>
-    <t>86,73%</t>
-  </si>
-  <si>
-    <t>21,61%</t>
-  </si>
-  <si>
-    <t>80,28%</t>
-  </si>
-  <si>
-    <t>14,97%</t>
-  </si>
-  <si>
-    <t>59,72%</t>
-  </si>
-  <si>
-    <t>37,99%</t>
-  </si>
-  <si>
-    <t>19,01%</t>
-  </si>
-  <si>
-    <t>62,01%</t>
-  </si>
-  <si>
-    <t>31,04%</t>
-  </si>
-  <si>
-    <t>83,08%</t>
-  </si>
-  <si>
-    <t>62,03%</t>
-  </si>
-  <si>
-    <t>30,98%</t>
-  </si>
-  <si>
-    <t>83,06%</t>
-  </si>
-  <si>
-    <t>37,97%</t>
-  </si>
-  <si>
-    <t>18,96%</t>
-  </si>
-  <si>
-    <t>74,95%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>23,28%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>12,9%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>27,7%</t>
-  </si>
-  <si>
-    <t>29,92%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>22,02%</t>
-  </si>
-  <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>41,71%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>17,94%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>31,71%</t>
-  </si>
-  <si>
-    <t>11,45%</t>
-  </si>
-  <si>
-    <t>31,62%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>21,94%</t>
-  </si>
-  <si>
-    <t>12,89%</t>
-  </si>
-  <si>
-    <t>39,53%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>36,57%</t>
-  </si>
-  <si>
-    <t>14,14%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>29,69%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>22,04%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>40,47%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>22,4%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>21,01%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>23,26%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>16,85%</t>
-  </si>
-  <si>
-    <t>42,14%</t>
-  </si>
-  <si>
-    <t>11,18%</t>
-  </si>
-  <si>
-    <t>37,92%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>28,58%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>16,36%</t>
-  </si>
-  <si>
-    <t>46,73%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>25,36%</t>
-  </si>
-  <si>
-    <t>10,46%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>26,69%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>24,69%</t>
-  </si>
-  <si>
-    <t>15,47%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>37,95%</t>
-  </si>
-  <si>
-    <t>10,81%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>23,03%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>29,14%</t>
-  </si>
-  <si>
-    <t>17,33%</t>
-  </si>
-  <si>
     <t>13,52%</t>
   </si>
   <si>
-    <t>40,77%</t>
+    <t>41,49%</t>
   </si>
   <si>
     <t>4,67%</t>
   </si>
   <si>
-    <t>25,76%</t>
+    <t>29,1%</t>
   </si>
   <si>
     <t>8,68%</t>
   </si>
   <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>22,12%</t>
+    <t>23,51%</t>
   </si>
   <si>
     <t>7,14%</t>
   </si>
   <si>
-    <t>28,88%</t>
+    <t>32,63%</t>
   </si>
   <si>
     <t>3,23%</t>
   </si>
   <si>
-    <t>16,68%</t>
+    <t>15,99%</t>
   </si>
 </sst>
 </file>
@@ -1283,7 +1286,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1379,39 +1382,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1463,7 +1466,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1574,13 +1577,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -1589,6 +1585,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1653,19 +1656,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3182C604-C568-4E39-83F6-E567BD6D2C1F}">
-  <dimension ref="A1:Q99"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2A3E25A-8ECF-4F39-AC03-53F487215184}">
+  <dimension ref="A1:Q100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4621,10 +4644,10 @@
         <v>85</v>
       </c>
       <c r="F60" s="7" t="s">
-        <v>39</v>
+        <v>86</v>
       </c>
       <c r="G60" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H60" s="7">
         <v>0</v>
@@ -4648,13 +4671,13 @@
         <v>2973</v>
       </c>
       <c r="O60" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="P60" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="Q60" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.3">
@@ -4669,13 +4692,13 @@
         <v>857</v>
       </c>
       <c r="E61" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F61" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G61" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H61" s="7">
         <v>0</v>
@@ -4699,13 +4722,13 @@
         <v>857</v>
       </c>
       <c r="O61" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="P61" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q61" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.3">
@@ -4735,13 +4758,13 @@
         <v>1680</v>
       </c>
       <c r="J62" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K62" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L62" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M62" s="7">
         <v>2</v>
@@ -4750,13 +4773,13 @@
         <v>1680</v>
       </c>
       <c r="O62" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="P62" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q62" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.3">
@@ -4771,13 +4794,13 @@
         <v>951</v>
       </c>
       <c r="E63" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F63" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G63" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H63" s="7">
         <v>0</v>
@@ -4801,13 +4824,13 @@
         <v>951</v>
       </c>
       <c r="O63" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="P63" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q63" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.3">
@@ -4828,7 +4851,7 @@
         <v>11</v>
       </c>
       <c r="G64" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H64" s="7">
         <v>0</v>
@@ -4852,13 +4875,13 @@
         <v>1809</v>
       </c>
       <c r="O64" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="P64" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q64" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.3">
@@ -4888,13 +4911,13 @@
         <v>2587</v>
       </c>
       <c r="J65" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K65" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L65" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M65" s="7">
         <v>3</v>
@@ -4903,13 +4926,13 @@
         <v>2587</v>
       </c>
       <c r="O65" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="P65" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Q65" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.3">
@@ -4939,13 +4962,13 @@
         <v>934</v>
       </c>
       <c r="J66" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K66" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L66" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="M66" s="7">
         <v>1</v>
@@ -4954,13 +4977,13 @@
         <v>934</v>
       </c>
       <c r="O66" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="P66" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q66" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.3">
@@ -5016,7 +5039,7 @@
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B68" s="5">
         <v>2015</v>
@@ -5283,13 +5306,13 @@
         <v>1128</v>
       </c>
       <c r="E73" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F73" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G73" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H73" s="7">
         <v>1</v>
@@ -5298,13 +5321,13 @@
         <v>1100</v>
       </c>
       <c r="J73" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K73" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L73" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="M73" s="7">
         <v>2</v>
@@ -5313,13 +5336,13 @@
         <v>2227</v>
       </c>
       <c r="O73" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="P73" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q73" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.3">
@@ -5334,13 +5357,13 @@
         <v>1255</v>
       </c>
       <c r="E74" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F74" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G74" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H74" s="7">
         <v>1</v>
@@ -5349,13 +5372,13 @@
         <v>842</v>
       </c>
       <c r="J74" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K74" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L74" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="M74" s="7">
         <v>2</v>
@@ -5364,13 +5387,13 @@
         <v>2098</v>
       </c>
       <c r="O74" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="P74" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q74" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="75" spans="1:17" x14ac:dyDescent="0.3">
@@ -5400,13 +5423,13 @@
         <v>1540</v>
       </c>
       <c r="J75" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K75" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L75" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="M75" s="7">
         <v>2</v>
@@ -5415,13 +5438,13 @@
         <v>1540</v>
       </c>
       <c r="O75" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="P75" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q75" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="76" spans="1:17" x14ac:dyDescent="0.3">
@@ -5451,13 +5474,13 @@
         <v>1100</v>
       </c>
       <c r="J76" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K76" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L76" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="M76" s="7">
         <v>1</v>
@@ -5466,13 +5489,13 @@
         <v>1100</v>
       </c>
       <c r="O76" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="P76" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q76" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="77" spans="1:17" x14ac:dyDescent="0.3">
@@ -5487,13 +5510,13 @@
         <v>2263</v>
       </c>
       <c r="E77" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F77" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G77" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="H77" s="7">
         <v>1</v>
@@ -5502,13 +5525,13 @@
         <v>1058</v>
       </c>
       <c r="J77" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K77" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L77" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M77" s="7">
         <v>3</v>
@@ -5517,13 +5540,13 @@
         <v>3321</v>
       </c>
       <c r="O77" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="P77" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q77" s="7" t="s">
-        <v>141</v>
+        <v>71</v>
       </c>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.3">
@@ -5553,7 +5576,7 @@
         <v>842</v>
       </c>
       <c r="J78" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K78" s="7" t="s">
         <v>11</v>
@@ -6239,7 +6262,7 @@
         <v>186</v>
       </c>
       <c r="Q91" s="7" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
     </row>
     <row r="92" spans="1:17" x14ac:dyDescent="0.3">
@@ -6254,13 +6277,13 @@
         <v>5590</v>
       </c>
       <c r="E92" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F92" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="G92" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="H92" s="7">
         <v>2</v>
@@ -6269,13 +6292,13 @@
         <v>2003</v>
       </c>
       <c r="J92" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="K92" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L92" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="M92" s="7">
         <v>8</v>
@@ -6284,13 +6307,13 @@
         <v>7592</v>
       </c>
       <c r="O92" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="P92" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q92" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="93" spans="1:17" x14ac:dyDescent="0.3">
@@ -6305,13 +6328,13 @@
         <v>4187</v>
       </c>
       <c r="E93" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F93" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="G93" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="H93" s="7">
         <v>2</v>
@@ -6320,13 +6343,13 @@
         <v>1936</v>
       </c>
       <c r="J93" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="K93" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L93" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="M93" s="7">
         <v>6</v>
@@ -6335,13 +6358,13 @@
         <v>6123</v>
       </c>
       <c r="O93" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="P93" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q93" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="94" spans="1:17" x14ac:dyDescent="0.3">
@@ -6356,13 +6379,13 @@
         <v>4205</v>
       </c>
       <c r="E94" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F94" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="G94" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="H94" s="7">
         <v>3</v>
@@ -6371,13 +6394,13 @@
         <v>2522</v>
       </c>
       <c r="J94" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="K94" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="L94" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="M94" s="7">
         <v>7</v>
@@ -6386,13 +6409,13 @@
         <v>6728</v>
       </c>
       <c r="O94" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="P94" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q94" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="95" spans="1:17" x14ac:dyDescent="0.3">
@@ -6407,13 +6430,13 @@
         <v>2062</v>
       </c>
       <c r="E95" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="F95" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G95" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="H95" s="7">
         <v>1</v>
@@ -6422,13 +6445,13 @@
         <v>736</v>
       </c>
       <c r="J95" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="K95" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L95" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M95" s="7">
         <v>3</v>
@@ -6437,13 +6460,13 @@
         <v>2798</v>
       </c>
       <c r="O95" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="P95" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q95" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="96" spans="1:17" x14ac:dyDescent="0.3">
@@ -6458,13 +6481,13 @@
         <v>4653</v>
       </c>
       <c r="E96" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="F96" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="G96" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="H96" s="7">
         <v>1</v>
@@ -6473,13 +6496,13 @@
         <v>910</v>
       </c>
       <c r="J96" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="K96" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L96" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="M96" s="7">
         <v>6</v>
@@ -6488,13 +6511,13 @@
         <v>5563</v>
       </c>
       <c r="O96" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="P96" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q96" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="97" spans="1:17" x14ac:dyDescent="0.3">
@@ -6509,13 +6532,13 @@
         <v>1924</v>
       </c>
       <c r="E97" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="F97" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G97" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="H97" s="7">
         <v>5</v>
@@ -6524,13 +6547,13 @@
         <v>4245</v>
       </c>
       <c r="J97" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="K97" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="L97" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="M97" s="7">
         <v>7</v>
@@ -6539,13 +6562,13 @@
         <v>6169</v>
       </c>
       <c r="O97" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="P97" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q97" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="98" spans="1:17" x14ac:dyDescent="0.3">
@@ -6578,10 +6601,10 @@
         <v>156</v>
       </c>
       <c r="K98" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="L98" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="M98" s="7">
         <v>3</v>
@@ -6593,10 +6616,10 @@
         <v>162</v>
       </c>
       <c r="P98" s="7" t="s">
-        <v>11</v>
+        <v>238</v>
       </c>
       <c r="Q98" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="99" spans="1:17" x14ac:dyDescent="0.3">
@@ -6648,6 +6671,11 @@
       </c>
       <c r="Q99" s="7" t="s">
         <v>16</v>
+      </c>
+    </row>
+    <row r="100" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>240</v>
       </c>
     </row>
   </sheetData>
@@ -6668,8 +6696,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{947BC83E-D64D-4932-9A12-C423088BEFD2}">
-  <dimension ref="A1:Q99"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4C69F01-0509-4711-94EA-8A07CC32FD67}">
+  <dimension ref="A1:Q100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -6685,7 +6713,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7520,7 +7548,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -7565,13 +7593,13 @@
         <v>937</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="H21" s="7">
         <v>1</v>
@@ -7580,7 +7608,7 @@
         <v>957</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="K21" s="7" t="s">
         <v>11</v>
@@ -7595,13 +7623,13 @@
         <v>1894</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="P21" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -7616,13 +7644,13 @@
         <v>1015</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -7646,13 +7674,13 @@
         <v>1015</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7673,7 +7701,7 @@
         <v>12</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="H23" s="7">
         <v>0</v>
@@ -7724,7 +7752,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="H24" s="7">
         <v>1</v>
@@ -7733,7 +7761,7 @@
         <v>938</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="K24" s="7" t="s">
         <v>11</v>
@@ -7748,13 +7776,13 @@
         <v>938</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="P24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7769,13 +7797,13 @@
         <v>672</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -7799,13 +7827,13 @@
         <v>672</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="P25" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7826,7 +7854,7 @@
         <v>12</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -7877,7 +7905,7 @@
         <v>12</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="H27" s="7">
         <v>0</v>
@@ -7928,7 +7956,7 @@
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -7973,7 +8001,7 @@
         <v>1088</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>11</v>
@@ -8009,7 +8037,7 @@
         <v>11</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8030,7 +8058,7 @@
         <v>12</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="H30" s="7">
         <v>0</v>
@@ -8081,7 +8109,7 @@
         <v>12</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="H31" s="7">
         <v>0</v>
@@ -8132,7 +8160,7 @@
         <v>12</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -8183,7 +8211,7 @@
         <v>12</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="H33" s="7">
         <v>0</v>
@@ -8234,7 +8262,7 @@
         <v>12</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="H34" s="7">
         <v>0</v>
@@ -8353,7 +8381,7 @@
         <v>11</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="M36" s="7">
         <v>1</v>
@@ -8362,13 +8390,13 @@
         <v>759</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="P36" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -8398,13 +8426,13 @@
         <v>536</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="K37" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="M37" s="7">
         <v>1</v>
@@ -8413,13 +8441,13 @@
         <v>536</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="P37" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -8455,7 +8483,7 @@
         <v>12</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="M38" s="7">
         <v>0</v>
@@ -8470,7 +8498,7 @@
         <v>12</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -8485,13 +8513,13 @@
         <v>892</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="F39" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="H39" s="7">
         <v>1</v>
@@ -8500,13 +8528,13 @@
         <v>993</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="K39" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="M39" s="7">
         <v>2</v>
@@ -8515,13 +8543,13 @@
         <v>1884</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="P39" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -8536,13 +8564,13 @@
         <v>943</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="F40" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="H40" s="7">
         <v>1</v>
@@ -8551,13 +8579,13 @@
         <v>874</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K40" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="M40" s="7">
         <v>2</v>
@@ -8566,13 +8594,13 @@
         <v>1818</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="P40" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -8608,7 +8636,7 @@
         <v>12</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="M41" s="7">
         <v>0</v>
@@ -8623,7 +8651,7 @@
         <v>12</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -8638,13 +8666,13 @@
         <v>644</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="F42" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="H42" s="7">
         <v>1</v>
@@ -8653,13 +8681,13 @@
         <v>564</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="K42" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="M42" s="7">
         <v>2</v>
@@ -8668,13 +8696,13 @@
         <v>1208</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="P42" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -8689,13 +8717,13 @@
         <v>943</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="F43" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="H43" s="7">
         <v>0</v>
@@ -8710,7 +8738,7 @@
         <v>12</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="M43" s="7">
         <v>1</v>
@@ -8719,13 +8747,13 @@
         <v>943</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="P43" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -8761,7 +8789,7 @@
         <v>12</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="M44" s="7">
         <v>0</v>
@@ -8776,7 +8804,7 @@
         <v>12</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -8812,7 +8840,7 @@
         <v>12</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="M45" s="7">
         <v>0</v>
@@ -8827,7 +8855,7 @@
         <v>12</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -8857,13 +8885,13 @@
         <v>2577</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="M46" s="7">
         <v>3</v>
@@ -8872,13 +8900,13 @@
         <v>2577</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -8908,13 +8936,13 @@
         <v>1492</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="K47" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="M47" s="7">
         <v>2</v>
@@ -8923,13 +8951,13 @@
         <v>1492</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="P47" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -8944,13 +8972,13 @@
         <v>1862</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="F48" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="H48" s="7">
         <v>1</v>
@@ -8959,13 +8987,13 @@
         <v>778</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="K48" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="M48" s="7">
         <v>3</v>
@@ -8974,13 +9002,13 @@
         <v>2640</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -8995,13 +9023,13 @@
         <v>983</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="F49" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="H49" s="7">
         <v>0</v>
@@ -9016,7 +9044,7 @@
         <v>12</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="M49" s="7">
         <v>1</v>
@@ -9025,13 +9053,13 @@
         <v>983</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="P49" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>85</v>
+        <v>307</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -9067,7 +9095,7 @@
         <v>12</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="M50" s="7">
         <v>0</v>
@@ -9082,7 +9110,7 @@
         <v>12</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -9171,7 +9199,7 @@
         <v>12</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="M52" s="7">
         <v>0</v>
@@ -9222,7 +9250,7 @@
         <v>12</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="M53" s="7">
         <v>0</v>
@@ -9273,7 +9301,7 @@
         <v>12</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="M54" s="7">
         <v>0</v>
@@ -9318,13 +9346,13 @@
         <v>915</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="K55" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="M55" s="7">
         <v>1</v>
@@ -9333,13 +9361,13 @@
         <v>915</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="P55" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -9354,7 +9382,7 @@
         <v>832</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>309</v>
+        <v>293</v>
       </c>
       <c r="F56" s="7" t="s">
         <v>11</v>
@@ -9375,7 +9403,7 @@
         <v>12</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="M56" s="7">
         <v>1</v>
@@ -9384,13 +9412,13 @@
         <v>832</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="P56" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -9426,7 +9454,7 @@
         <v>12</v>
       </c>
       <c r="L57" s="7" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="M57" s="7">
         <v>0</v>
@@ -9471,13 +9499,13 @@
         <v>601</v>
       </c>
       <c r="J58" s="7" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="K58" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L58" s="7" t="s">
-        <v>61</v>
+        <v>316</v>
       </c>
       <c r="M58" s="7">
         <v>1</v>
@@ -9486,13 +9514,13 @@
         <v>601</v>
       </c>
       <c r="O58" s="7" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="P58" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q58" s="7" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.3">
@@ -9507,7 +9535,7 @@
         <v>1081</v>
       </c>
       <c r="E59" s="7" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="F59" s="7" t="s">
         <v>11</v>
@@ -9522,13 +9550,13 @@
         <v>1863</v>
       </c>
       <c r="J59" s="7" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="K59" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L59" s="7" t="s">
-        <v>14</v>
+        <v>321</v>
       </c>
       <c r="M59" s="7">
         <v>3</v>
@@ -9537,13 +9565,13 @@
         <v>2943</v>
       </c>
       <c r="O59" s="7" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="P59" s="7" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="Q59" s="7" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.3">
@@ -9579,7 +9607,7 @@
         <v>12</v>
       </c>
       <c r="L60" s="7" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="M60" s="7">
         <v>0</v>
@@ -9624,13 +9652,13 @@
         <v>931</v>
       </c>
       <c r="J61" s="7" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="K61" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L61" s="7" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="M61" s="7">
         <v>1</v>
@@ -9639,13 +9667,13 @@
         <v>931</v>
       </c>
       <c r="O61" s="7" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="P61" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q61" s="7" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.3">
@@ -9681,7 +9709,7 @@
         <v>12</v>
       </c>
       <c r="L62" s="7" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="M62" s="7">
         <v>0</v>
@@ -9732,7 +9760,7 @@
         <v>12</v>
       </c>
       <c r="L63" s="7" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="M63" s="7">
         <v>0</v>
@@ -9783,7 +9811,7 @@
         <v>12</v>
       </c>
       <c r="L64" s="7" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="M64" s="7">
         <v>0</v>
@@ -9834,7 +9862,7 @@
         <v>12</v>
       </c>
       <c r="L65" s="7" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="M65" s="7">
         <v>0</v>
@@ -9885,7 +9913,7 @@
         <v>12</v>
       </c>
       <c r="L66" s="7" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="M66" s="7">
         <v>0</v>
@@ -9956,7 +9984,7 @@
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B68" s="5">
         <v>2015</v>
@@ -10004,7 +10032,7 @@
         <v>12</v>
       </c>
       <c r="Q68" s="7" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.3">
@@ -10055,7 +10083,7 @@
         <v>12</v>
       </c>
       <c r="Q69" s="7" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.3">
@@ -10106,7 +10134,7 @@
         <v>12</v>
       </c>
       <c r="Q70" s="7" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.3">
@@ -10157,7 +10185,7 @@
         <v>12</v>
       </c>
       <c r="Q71" s="7" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.3">
@@ -10187,7 +10215,7 @@
         <v>715</v>
       </c>
       <c r="J72" s="7" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="K72" s="7" t="s">
         <v>11</v>
@@ -10202,7 +10230,7 @@
         <v>715</v>
       </c>
       <c r="O72" s="7" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="P72" s="7" t="s">
         <v>11</v>
@@ -10238,7 +10266,7 @@
         <v>1167</v>
       </c>
       <c r="J73" s="7" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="K73" s="7" t="s">
         <v>11</v>
@@ -10253,13 +10281,13 @@
         <v>1167</v>
       </c>
       <c r="O73" s="7" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="P73" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q73" s="7" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.3">
@@ -10310,7 +10338,7 @@
         <v>12</v>
       </c>
       <c r="Q74" s="7" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
     </row>
     <row r="75" spans="1:17" x14ac:dyDescent="0.3">
@@ -10361,7 +10389,7 @@
         <v>12</v>
       </c>
       <c r="Q75" s="7" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
     </row>
     <row r="76" spans="1:17" x14ac:dyDescent="0.3">
@@ -10412,7 +10440,7 @@
         <v>12</v>
       </c>
       <c r="Q76" s="7" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
     </row>
     <row r="77" spans="1:17" x14ac:dyDescent="0.3">
@@ -10427,7 +10455,7 @@
         <v>1165</v>
       </c>
       <c r="E77" s="7" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="F77" s="7" t="s">
         <v>11</v>
@@ -10457,13 +10485,13 @@
         <v>1165</v>
       </c>
       <c r="O77" s="7" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="P77" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q77" s="7" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.3">
@@ -10478,7 +10506,7 @@
         <v>713</v>
       </c>
       <c r="E78" s="7" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="F78" s="7" t="s">
         <v>11</v>
@@ -10508,13 +10536,13 @@
         <v>713</v>
       </c>
       <c r="O78" s="7" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="P78" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q78" s="7" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
     </row>
     <row r="79" spans="1:17" x14ac:dyDescent="0.3">
@@ -10565,7 +10593,7 @@
         <v>12</v>
       </c>
       <c r="Q79" s="7" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
     </row>
     <row r="80" spans="1:17" x14ac:dyDescent="0.3">
@@ -10616,7 +10644,7 @@
         <v>12</v>
       </c>
       <c r="Q80" s="7" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
     </row>
     <row r="81" spans="1:17" x14ac:dyDescent="0.3">
@@ -10667,7 +10695,7 @@
         <v>12</v>
       </c>
       <c r="Q81" s="7" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
     </row>
     <row r="82" spans="1:17" x14ac:dyDescent="0.3">
@@ -10718,7 +10746,7 @@
         <v>12</v>
       </c>
       <c r="Q82" s="7" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
     </row>
     <row r="83" spans="1:17" x14ac:dyDescent="0.3">
@@ -10792,7 +10820,7 @@
         <v>12</v>
       </c>
       <c r="G84" s="7" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="H84" s="7">
         <v>1</v>
@@ -10801,13 +10829,13 @@
         <v>759</v>
       </c>
       <c r="J84" s="7" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="K84" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L84" s="7" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="M84" s="7">
         <v>1</v>
@@ -10816,13 +10844,13 @@
         <v>759</v>
       </c>
       <c r="O84" s="7" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="P84" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q84" s="7" t="s">
-        <v>339</v>
+        <v>201</v>
       </c>
     </row>
     <row r="85" spans="1:17" x14ac:dyDescent="0.3">
@@ -10837,13 +10865,13 @@
         <v>937</v>
       </c>
       <c r="E85" s="7" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="F85" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G85" s="7" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="H85" s="7">
         <v>2</v>
@@ -10852,13 +10880,13 @@
         <v>1492</v>
       </c>
       <c r="J85" s="7" t="s">
-        <v>44</v>
+        <v>346</v>
       </c>
       <c r="K85" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L85" s="7" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="M85" s="7">
         <v>3</v>
@@ -10867,13 +10895,13 @@
         <v>2429</v>
       </c>
       <c r="O85" s="7" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="P85" s="7" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="Q85" s="7" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
     </row>
     <row r="86" spans="1:17" x14ac:dyDescent="0.3">
@@ -10888,13 +10916,13 @@
         <v>1015</v>
       </c>
       <c r="E86" s="7" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="F86" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G86" s="7" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="H86" s="7">
         <v>0</v>
@@ -10909,7 +10937,7 @@
         <v>12</v>
       </c>
       <c r="L86" s="7" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="M86" s="7">
         <v>1</v>
@@ -10918,13 +10946,13 @@
         <v>1015</v>
       </c>
       <c r="O86" s="7" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="P86" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q86" s="7" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
     </row>
     <row r="87" spans="1:17" x14ac:dyDescent="0.3">
@@ -10939,13 +10967,13 @@
         <v>892</v>
       </c>
       <c r="E87" s="7" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="F87" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G87" s="7" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="H87" s="7">
         <v>2</v>
@@ -10954,13 +10982,13 @@
         <v>1908</v>
       </c>
       <c r="J87" s="7" t="s">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="K87" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L87" s="7" t="s">
-        <v>354</v>
+        <v>297</v>
       </c>
       <c r="M87" s="7">
         <v>3</v>
@@ -10969,13 +10997,13 @@
         <v>2799</v>
       </c>
       <c r="O87" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="P87" s="7" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="Q87" s="7" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
     </row>
     <row r="88" spans="1:17" x14ac:dyDescent="0.3">
@@ -10990,13 +11018,13 @@
         <v>1775</v>
       </c>
       <c r="E88" s="7" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="F88" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G88" s="7" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="H88" s="7">
         <v>3</v>
@@ -11005,13 +11033,13 @@
         <v>2528</v>
       </c>
       <c r="J88" s="7" t="s">
-        <v>318</v>
+        <v>216</v>
       </c>
       <c r="K88" s="7" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="L88" s="7" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="M88" s="7">
         <v>5</v>
@@ -11020,13 +11048,13 @@
         <v>4303</v>
       </c>
       <c r="O88" s="7" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="P88" s="7" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="Q88" s="7" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
     </row>
     <row r="89" spans="1:17" x14ac:dyDescent="0.3">
@@ -11041,13 +11069,13 @@
         <v>672</v>
       </c>
       <c r="E89" s="7" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="F89" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G89" s="7" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="H89" s="7">
         <v>1</v>
@@ -11056,13 +11084,13 @@
         <v>1167</v>
       </c>
       <c r="J89" s="7" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="K89" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L89" s="7" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="M89" s="7">
         <v>2</v>
@@ -11071,13 +11099,13 @@
         <v>1840</v>
       </c>
       <c r="O89" s="7" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="P89" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q89" s="7" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
     </row>
     <row r="90" spans="1:17" x14ac:dyDescent="0.3">
@@ -11092,13 +11120,13 @@
         <v>644</v>
       </c>
       <c r="E90" s="7" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="F90" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G90" s="7" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="H90" s="7">
         <v>2</v>
@@ -11107,13 +11135,13 @@
         <v>1165</v>
       </c>
       <c r="J90" s="7" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="K90" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L90" s="7" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="M90" s="7">
         <v>3</v>
@@ -11122,13 +11150,13 @@
         <v>1809</v>
       </c>
       <c r="O90" s="7" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="P90" s="7" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="Q90" s="7" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
     </row>
     <row r="91" spans="1:17" x14ac:dyDescent="0.3">
@@ -11143,13 +11171,13 @@
         <v>2024</v>
       </c>
       <c r="E91" s="7" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="F91" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G91" s="7" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="H91" s="7">
         <v>2</v>
@@ -11158,13 +11186,13 @@
         <v>1863</v>
       </c>
       <c r="J91" s="7" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="K91" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L91" s="7" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="M91" s="7">
         <v>4</v>
@@ -11173,13 +11201,13 @@
         <v>3887</v>
       </c>
       <c r="O91" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="P91" s="7" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="Q91" s="7" t="s">
-        <v>381</v>
+        <v>169</v>
       </c>
     </row>
     <row r="92" spans="1:17" x14ac:dyDescent="0.3">
@@ -11200,7 +11228,7 @@
         <v>12</v>
       </c>
       <c r="G92" s="7" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="H92" s="7">
         <v>0</v>
@@ -11215,7 +11243,7 @@
         <v>12</v>
       </c>
       <c r="L92" s="7" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="M92" s="7">
         <v>0</v>
@@ -11230,7 +11258,7 @@
         <v>12</v>
       </c>
       <c r="Q92" s="7" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
     </row>
     <row r="93" spans="1:17" x14ac:dyDescent="0.3">
@@ -11245,13 +11273,13 @@
         <v>2253</v>
       </c>
       <c r="E93" s="7" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="F93" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G93" s="7" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="H93" s="7">
         <v>1</v>
@@ -11260,13 +11288,13 @@
         <v>931</v>
       </c>
       <c r="J93" s="7" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="K93" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L93" s="7" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="M93" s="7">
         <v>3</v>
@@ -11275,13 +11303,13 @@
         <v>3185</v>
       </c>
       <c r="O93" s="7" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="P93" s="7" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="Q93" s="7" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
     </row>
     <row r="94" spans="1:17" x14ac:dyDescent="0.3">
@@ -11296,13 +11324,13 @@
         <v>713</v>
       </c>
       <c r="E94" s="7" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="F94" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G94" s="7" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="H94" s="7">
         <v>3</v>
@@ -11311,13 +11339,13 @@
         <v>2577</v>
       </c>
       <c r="J94" s="7" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="K94" s="7" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="L94" s="7" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="M94" s="7">
         <v>4</v>
@@ -11326,13 +11354,13 @@
         <v>3290</v>
       </c>
       <c r="O94" s="7" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="P94" s="7" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="Q94" s="7" t="s">
-        <v>397</v>
+        <v>200</v>
       </c>
     </row>
     <row r="95" spans="1:17" x14ac:dyDescent="0.3">
@@ -11353,7 +11381,7 @@
         <v>12</v>
       </c>
       <c r="G95" s="7" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="H95" s="7">
         <v>2</v>
@@ -11362,13 +11390,13 @@
         <v>1492</v>
       </c>
       <c r="J95" s="7" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="K95" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L95" s="7" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="M95" s="7">
         <v>2</v>
@@ -11377,13 +11405,13 @@
         <v>1492</v>
       </c>
       <c r="O95" s="7" t="s">
-        <v>233</v>
+        <v>402</v>
       </c>
       <c r="P95" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q95" s="7" t="s">
-        <v>400</v>
+        <v>265</v>
       </c>
     </row>
     <row r="96" spans="1:17" x14ac:dyDescent="0.3">
@@ -11398,13 +11426,13 @@
         <v>1862</v>
       </c>
       <c r="E96" s="7" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="F96" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G96" s="7" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="H96" s="7">
         <v>1</v>
@@ -11413,13 +11441,13 @@
         <v>778</v>
       </c>
       <c r="J96" s="7" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="K96" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L96" s="7" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="M96" s="7">
         <v>3</v>
@@ -11428,13 +11456,13 @@
         <v>2640</v>
       </c>
       <c r="O96" s="7" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="P96" s="7" t="s">
-        <v>406</v>
+        <v>343</v>
       </c>
       <c r="Q96" s="7" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="97" spans="1:17" x14ac:dyDescent="0.3">
@@ -11449,13 +11477,13 @@
         <v>983</v>
       </c>
       <c r="E97" s="7" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="F97" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G97" s="7" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="H97" s="7">
         <v>0</v>
@@ -11470,7 +11498,7 @@
         <v>12</v>
       </c>
       <c r="L97" s="7" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="M97" s="7">
         <v>1</v>
@@ -11479,13 +11507,13 @@
         <v>983</v>
       </c>
       <c r="O97" s="7" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="P97" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q97" s="7" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="98" spans="1:17" x14ac:dyDescent="0.3">
@@ -11506,7 +11534,7 @@
         <v>12</v>
       </c>
       <c r="G98" s="7" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="H98" s="7">
         <v>0</v>
@@ -11521,7 +11549,7 @@
         <v>12</v>
       </c>
       <c r="L98" s="7" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="M98" s="7">
         <v>0</v>
@@ -11536,7 +11564,7 @@
         <v>12</v>
       </c>
       <c r="Q98" s="7" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
     </row>
     <row r="99" spans="1:17" x14ac:dyDescent="0.3">
@@ -11588,6 +11616,11 @@
       </c>
       <c r="Q99" s="7" t="s">
         <v>16</v>
+      </c>
+    </row>
+    <row r="100" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>240</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/ip32_a_an-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/ip32_a_an-Habitat-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A1F6F21C-4A9E-4E0C-80DD-957DAD0BBA59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AFB2EC02-B2D6-4C78-AA36-8053B8197789}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{34590514-19AF-4D76-B516-50B022BFDA9F}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{E3CC10A1-BFC5-4393-8678-85569379939F}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1792" uniqueCount="413">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1792" uniqueCount="411">
   <si>
     <t>Menores según el año que llegó a Andalucía en 2012 (Tasa respuesta: 2,67%)</t>
   </si>
@@ -66,7 +66,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>—%</t>
@@ -90,7 +90,7 @@
     <t>100%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>77,15%</t>
@@ -117,7 +117,7 @@
     <t>33,55%</t>
   </si>
   <si>
-    <t>10/50</t>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>23,25%</t>
@@ -132,7 +132,7 @@
     <t>17,29%</t>
   </si>
   <si>
-    <t>71,51%</t>
+    <t>74,26%</t>
   </si>
   <si>
     <t>7,25%</t>
@@ -144,1054 +144,1042 @@
     <t>13,63%</t>
   </si>
   <si>
-    <t>61,39%</t>
+    <t>61,19%</t>
   </si>
   <si>
     <t>5,72%</t>
   </si>
   <si>
-    <t>25,46%</t>
+    <t>31,62%</t>
   </si>
   <si>
     <t>38,96%</t>
   </si>
   <si>
-    <t>10,18%</t>
-  </si>
-  <si>
-    <t>83,72%</t>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>83,26%</t>
   </si>
   <si>
     <t>18,62%</t>
   </si>
   <si>
-    <t>72,36%</t>
+    <t>72,38%</t>
   </si>
   <si>
     <t>30,43%</t>
   </si>
   <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>58,31%</t>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>59,69%</t>
   </si>
   <si>
     <t>18,1%</t>
   </si>
   <si>
-    <t>69,16%</t>
+    <t>69,18%</t>
   </si>
   <si>
     <t>7,59%</t>
   </si>
   <si>
+    <t>38,19%</t>
+  </si>
+  <si>
+    <t>29,87%</t>
+  </si>
+  <si>
+    <t>75,0%</t>
+  </si>
+  <si>
+    <t>17,34%</t>
+  </si>
+  <si>
+    <t>49,95%</t>
+  </si>
+  <si>
+    <t>16,54%</t>
+  </si>
+  <si>
+    <t>72,11%</t>
+  </si>
+  <si>
+    <t>9,6%</t>
+  </si>
+  <si>
+    <t>37,99%</t>
+  </si>
+  <si>
+    <t>14,63%</t>
+  </si>
+  <si>
+    <t>55,83%</t>
+  </si>
+  <si>
+    <t>14,26%</t>
+  </si>
+  <si>
+    <t>61,36%</t>
+  </si>
+  <si>
+    <t>14,47%</t>
+  </si>
+  <si>
+    <t>39,73%</t>
+  </si>
+  <si>
+    <t>69,59%</t>
+  </si>
+  <si>
+    <t>30,74%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>17,08%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>9,9%</t>
+  </si>
+  <si>
+    <t>40,42%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>22,29%</t>
+  </si>
+  <si>
+    <t>19,4%</t>
+  </si>
+  <si>
+    <t>50,65%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>36,65%</t>
+  </si>
+  <si>
+    <t>14,17%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>35,77%</t>
+  </si>
+  <si>
+    <t>22,45%</t>
+  </si>
+  <si>
+    <t>66,77%</t>
+  </si>
+  <si>
+    <t>9,96%</t>
+  </si>
+  <si>
+    <t>30,85%</t>
+  </si>
+  <si>
+    <t>31,89%</t>
+  </si>
+  <si>
+    <t>10,07%</t>
+  </si>
+  <si>
+    <t>71,34%</t>
+  </si>
+  <si>
+    <t>17,74%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>40,29%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>37,85%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>26,55%</t>
+  </si>
+  <si>
+    <t>22,59%</t>
+  </si>
+  <si>
+    <t>65,53%</t>
+  </si>
+  <si>
+    <t>10,02%</t>
+  </si>
+  <si>
+    <t>31,27%</t>
+  </si>
+  <si>
+    <t>10,2%</t>
+  </si>
+  <si>
+    <t>41,63%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>23,56%</t>
+  </si>
+  <si>
+    <t>50,03%</t>
+  </si>
+  <si>
+    <t>10,79%</t>
+  </si>
+  <si>
+    <t>32,97%</t>
+  </si>
+  <si>
+    <t>34,78%</t>
+  </si>
+  <si>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>68,77%</t>
+  </si>
+  <si>
+    <t>15,44%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>39,27%</t>
+  </si>
+  <si>
+    <t>12,56%</t>
+  </si>
+  <si>
+    <t>58,29%</t>
+  </si>
+  <si>
+    <t>26,22%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>43,66%</t>
+  </si>
+  <si>
+    <t>12,97%</t>
+  </si>
+  <si>
+    <t>51,41%</t>
+  </si>
+  <si>
+    <t>11,66%</t>
+  </si>
+  <si>
+    <t>34,44%</t>
+  </si>
+  <si>
+    <t>11,81%</t>
+  </si>
+  <si>
+    <t>46,27%</t>
+  </si>
+  <si>
+    <t>9,94%</t>
+  </si>
+  <si>
+    <t>43,02%</t>
+  </si>
+  <si>
+    <t>10,98%</t>
+  </si>
+  <si>
+    <t>33,09%</t>
+  </si>
+  <si>
+    <t>18,17%</t>
+  </si>
+  <si>
+    <t>58,71%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>25,15%</t>
+  </si>
+  <si>
+    <t>55,16%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>23,35%</t>
+  </si>
+  <si>
+    <t>21,29%</t>
+  </si>
+  <si>
+    <t>53,64%</t>
+  </si>
+  <si>
+    <t>12,48%</t>
+  </si>
+  <si>
+    <t>50,02%</t>
+  </si>
+  <si>
+    <t>17,38%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>41,51%</t>
+  </si>
+  <si>
+    <t>20,69%</t>
+  </si>
+  <si>
+    <t>54,39%</t>
+  </si>
+  <si>
+    <t>15,92%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>39,16%</t>
+  </si>
+  <si>
+    <t>26,75%</t>
+  </si>
+  <si>
+    <t>8,23%</t>
+  </si>
+  <si>
+    <t>58,99%</t>
+  </si>
+  <si>
+    <t>14,88%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>36,19%</t>
+  </si>
+  <si>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>37,25%</t>
+  </si>
+  <si>
+    <t>11,39%</t>
+  </si>
+  <si>
+    <t>57,78%</t>
+  </si>
+  <si>
+    <t>9,98%</t>
+  </si>
+  <si>
+    <t>30,6%</t>
+  </si>
+  <si>
+    <t>12,14%</t>
+  </si>
+  <si>
+    <t>49,44%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>27,58%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>23,86%</t>
+  </si>
+  <si>
+    <t>24,59%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>18,09%</t>
+  </si>
+  <si>
+    <t>11,05%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>29,64%</t>
+  </si>
+  <si>
+    <t>15,82%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>34,39%</t>
+  </si>
+  <si>
+    <t>13,31%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>25,0%</t>
+  </si>
+  <si>
+    <t>15,51%</t>
+  </si>
+  <si>
+    <t>31,68%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>20,15%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
     <t>38,29%</t>
   </si>
   <si>
-    <t>29,87%</t>
-  </si>
-  <si>
-    <t>73,72%</t>
-  </si>
-  <si>
-    <t>17,34%</t>
-  </si>
-  <si>
-    <t>43,06%</t>
-  </si>
-  <si>
-    <t>16,54%</t>
-  </si>
-  <si>
-    <t>73,63%</t>
-  </si>
-  <si>
-    <t>9,6%</t>
-  </si>
-  <si>
-    <t>42,59%</t>
-  </si>
-  <si>
-    <t>14,63%</t>
-  </si>
-  <si>
-    <t>59,49%</t>
-  </si>
-  <si>
-    <t>14,26%</t>
-  </si>
-  <si>
-    <t>62,49%</t>
-  </si>
-  <si>
-    <t>14,47%</t>
-  </si>
-  <si>
-    <t>39,47%</t>
-  </si>
-  <si>
-    <t>68,99%</t>
-  </si>
-  <si>
-    <t>32,18%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>17,08%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>39,87%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>22,69%</t>
-  </si>
-  <si>
-    <t>19,4%</t>
-  </si>
-  <si>
-    <t>58,2%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>36,87%</t>
-  </si>
-  <si>
-    <t>14,17%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>35,29%</t>
-  </si>
-  <si>
-    <t>22,45%</t>
-  </si>
-  <si>
-    <t>57,74%</t>
-  </si>
-  <si>
-    <t>9,96%</t>
-  </si>
-  <si>
-    <t>34,15%</t>
-  </si>
-  <si>
-    <t>31,89%</t>
-  </si>
-  <si>
-    <t>10,13%</t>
-  </si>
-  <si>
-    <t>63,0%</t>
-  </si>
-  <si>
-    <t>17,74%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>40,22%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>39,16%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>26,28%</t>
-  </si>
-  <si>
-    <t>22,59%</t>
-  </si>
-  <si>
-    <t>58,14%</t>
-  </si>
-  <si>
-    <t>10,02%</t>
-  </si>
-  <si>
-    <t>30,51%</t>
-  </si>
-  <si>
-    <t>10,2%</t>
-  </si>
-  <si>
-    <t>41,42%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>27,82%</t>
-  </si>
-  <si>
-    <t>50,27%</t>
-  </si>
-  <si>
-    <t>10,79%</t>
-  </si>
-  <si>
-    <t>33,21%</t>
-  </si>
-  <si>
-    <t>34,78%</t>
-  </si>
-  <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>79,47%</t>
-  </si>
-  <si>
-    <t>15,44%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>38,28%</t>
-  </si>
-  <si>
-    <t>12,56%</t>
-  </si>
-  <si>
-    <t>49,7%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>24,89%</t>
+  </si>
+  <si>
+    <t>14,41%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>26,71%</t>
+  </si>
+  <si>
+    <t>15,1%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>32,57%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>27,17%</t>
+  </si>
+  <si>
+    <t>11,62%</t>
+  </si>
+  <si>
+    <t>24,12%</t>
+  </si>
+  <si>
+    <t>15,16%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>34,5%</t>
+  </si>
+  <si>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>27,24%</t>
+  </si>
+  <si>
+    <t>12,77%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>24,57%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>26,76%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>13,67%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>14,23%</t>
+  </si>
+  <si>
+    <t>16,78%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>33,45%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>17,47%</t>
+  </si>
+  <si>
+    <t>10,56%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>20,82%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>22,51%</t>
+  </si>
+  <si>
+    <t>17,01%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>34,28%</t>
+  </si>
+  <si>
+    <t>11,71%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>22,4%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>29,2%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>14,4%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según el año que llegó a Andalucía en 2016 (Tasa respuesta: 1,65%)</t>
+  </si>
+  <si>
+    <t>36,25%</t>
+  </si>
+  <si>
+    <t>25,24%</t>
+  </si>
+  <si>
+    <t>50,48%</t>
+  </si>
+  <si>
+    <t>33,77%</t>
+  </si>
+  <si>
+    <t>81,36%</t>
+  </si>
+  <si>
+    <t>27,35%</t>
+  </si>
+  <si>
+    <t>81,92%</t>
+  </si>
+  <si>
+    <t>18,11%</t>
+  </si>
+  <si>
+    <t>71,6%</t>
+  </si>
+  <si>
+    <t>49,52%</t>
+  </si>
+  <si>
+    <t>16,73%</t>
+  </si>
+  <si>
+    <t>66,65%</t>
+  </si>
+  <si>
+    <t>68,28%</t>
+  </si>
+  <si>
+    <t>11,99%</t>
+  </si>
+  <si>
+    <t>56,94%</t>
+  </si>
+  <si>
+    <t>29,3%</t>
+  </si>
+  <si>
+    <t>82,92%</t>
+  </si>
+  <si>
+    <t>73,0%</t>
+  </si>
+  <si>
+    <t>39,59%</t>
   </si>
   <si>
     <t>27,34%</t>
   </si>
   <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>50,45%</t>
-  </si>
-  <si>
-    <t>12,97%</t>
-  </si>
-  <si>
-    <t>51,56%</t>
-  </si>
-  <si>
-    <t>11,66%</t>
-  </si>
-  <si>
-    <t>34,4%</t>
-  </si>
-  <si>
-    <t>11,81%</t>
-  </si>
-  <si>
-    <t>54,88%</t>
-  </si>
-  <si>
-    <t>9,94%</t>
-  </si>
-  <si>
-    <t>49,86%</t>
-  </si>
-  <si>
-    <t>10,98%</t>
-  </si>
-  <si>
-    <t>33,71%</t>
-  </si>
-  <si>
-    <t>18,17%</t>
-  </si>
-  <si>
-    <t>50,76%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>25,11%</t>
-  </si>
-  <si>
-    <t>50,04%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>28,66%</t>
-  </si>
-  <si>
-    <t>21,29%</t>
-  </si>
-  <si>
-    <t>59,3%</t>
-  </si>
-  <si>
-    <t>12,48%</t>
-  </si>
-  <si>
-    <t>51,49%</t>
-  </si>
-  <si>
-    <t>17,38%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>20,69%</t>
-  </si>
-  <si>
-    <t>58,58%</t>
-  </si>
-  <si>
-    <t>44,04%</t>
-  </si>
-  <si>
-    <t>15,92%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>41,71%</t>
-  </si>
-  <si>
-    <t>26,75%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>56,91%</t>
-  </si>
-  <si>
-    <t>14,88%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>37,48%</t>
-  </si>
-  <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>37,9%</t>
-  </si>
-  <si>
-    <t>11,39%</t>
-  </si>
-  <si>
-    <t>46,29%</t>
-  </si>
-  <si>
-    <t>9,98%</t>
-  </si>
-  <si>
-    <t>30,86%</t>
-  </si>
-  <si>
-    <t>12,14%</t>
-  </si>
-  <si>
-    <t>58,78%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>26,94%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>22,15%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>27,72%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>16,7%</t>
-  </si>
-  <si>
-    <t>11,05%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>27,25%</t>
-  </si>
-  <si>
-    <t>15,82%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>33,69%</t>
-  </si>
-  <si>
-    <t>13,31%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>24,86%</t>
-  </si>
-  <si>
-    <t>15,51%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>31,43%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>15,64%</t>
-  </si>
-  <si>
-    <t>20,15%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>38,87%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>28,19%</t>
-  </si>
-  <si>
-    <t>14,41%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>25,44%</t>
-  </si>
-  <si>
-    <t>15,1%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>33,45%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>24,66%</t>
-  </si>
-  <si>
-    <t>11,62%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>22,5%</t>
-  </si>
-  <si>
-    <t>15,16%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>33,74%</t>
-  </si>
-  <si>
-    <t>10,11%</t>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>28,47%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>19,65%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>59,58%</t>
+  </si>
+  <si>
+    <t>11,58%</t>
+  </si>
+  <si>
+    <t>49,2%</t>
+  </si>
+  <si>
+    <t>12,7%</t>
+  </si>
+  <si>
+    <t>37,96%</t>
+  </si>
+  <si>
+    <t>15,05%</t>
+  </si>
+  <si>
+    <t>62,39%</t>
+  </si>
+  <si>
+    <t>42,7%</t>
+  </si>
+  <si>
+    <t>12,25%</t>
+  </si>
+  <si>
+    <t>35,58%</t>
+  </si>
+  <si>
+    <t>10,28%</t>
+  </si>
+  <si>
+    <t>48,3%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>30,46%</t>
+  </si>
+  <si>
+    <t>8,14%</t>
+  </si>
+  <si>
+    <t>25,96%</t>
+  </si>
+  <si>
+    <t>60,09%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>37,07%</t>
+  </si>
+  <si>
+    <t>30,06%</t>
+  </si>
+  <si>
+    <t>67,37%</t>
+  </si>
+  <si>
+    <t>17,36%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>43,3%</t>
+  </si>
+  <si>
+    <t>17,4%</t>
+  </si>
+  <si>
+    <t>46,64%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>30,18%</t>
+  </si>
+  <si>
+    <t>29,71%</t>
+  </si>
+  <si>
+    <t>72,85%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>55,03%</t>
+  </si>
+  <si>
+    <t>17,79%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>42,22%</t>
+  </si>
+  <si>
+    <t>68,24%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>33,46%</t>
+  </si>
+  <si>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>21,23%</t>
+  </si>
+  <si>
+    <t>81,45%</t>
+  </si>
+  <si>
+    <t>14,7%</t>
+  </si>
+  <si>
+    <t>57,77%</t>
+  </si>
+  <si>
+    <t>43,48%</t>
+  </si>
+  <si>
+    <t>13,37%</t>
+  </si>
+  <si>
+    <t>54,74%</t>
+  </si>
+  <si>
+    <t>13,94%</t>
+  </si>
+  <si>
+    <t>72,07%</t>
+  </si>
+  <si>
+    <t>9,65%</t>
+  </si>
+  <si>
+    <t>46,57%</t>
+  </si>
+  <si>
+    <t>56,52%</t>
+  </si>
+  <si>
+    <t>43,22%</t>
+  </si>
+  <si>
+    <t>86,11%</t>
+  </si>
+  <si>
+    <t>47,31%</t>
+  </si>
+  <si>
+    <t>15,2%</t>
+  </si>
+  <si>
+    <t>87,61%</t>
+  </si>
+  <si>
+    <t>21,61%</t>
+  </si>
+  <si>
+    <t>80,28%</t>
+  </si>
+  <si>
+    <t>14,97%</t>
+  </si>
+  <si>
+    <t>61,47%</t>
+  </si>
+  <si>
+    <t>19,01%</t>
+  </si>
+  <si>
+    <t>75,05%</t>
+  </si>
+  <si>
+    <t>62,01%</t>
+  </si>
+  <si>
+    <t>31,04%</t>
+  </si>
+  <si>
+    <t>62,03%</t>
+  </si>
+  <si>
+    <t>30,98%</t>
+  </si>
+  <si>
+    <t>83,06%</t>
+  </si>
+  <si>
+    <t>37,97%</t>
+  </si>
+  <si>
+    <t>18,96%</t>
+  </si>
+  <si>
+    <t>74,95%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>23,07%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>10,52%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>34,67%</t>
+  </si>
+  <si>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>27,93%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>20,63%</t>
+  </si>
+  <si>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>33,2%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>16,1%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>27,54%</t>
+  </si>
+  <si>
+    <t>11,45%</t>
+  </si>
+  <si>
+    <t>34,76%</t>
   </si>
   <si>
     <t>2,88%</t>
   </si>
   <si>
-    <t>27,44%</t>
-  </si>
-  <si>
-    <t>12,77%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>23,63%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>27,71%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
+    <t>23,28%</t>
+  </si>
+  <si>
+    <t>12,89%</t>
+  </si>
+  <si>
+    <t>36,4%</t>
   </si>
   <si>
     <t>15,17%</t>
   </si>
   <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>14,48%</t>
-  </si>
-  <si>
-    <t>16,78%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>34,23%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>18,81%</t>
-  </si>
-  <si>
-    <t>10,56%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>21,33%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>21,1%</t>
-  </si>
-  <si>
-    <t>17,01%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>36,29%</t>
-  </si>
-  <si>
-    <t>11,71%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>22,4%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>30,48%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>16,17%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según el año que llegó a Andalucía en 2015 (Tasa respuesta: 1,65%)</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>25,24%</t>
-  </si>
-  <si>
-    <t>80,7%</t>
-  </si>
-  <si>
-    <t>50,48%</t>
-  </si>
-  <si>
-    <t>33,77%</t>
-  </si>
-  <si>
-    <t>82,31%</t>
-  </si>
-  <si>
-    <t>27,35%</t>
-  </si>
-  <si>
-    <t>81,92%</t>
-  </si>
-  <si>
-    <t>18,11%</t>
-  </si>
-  <si>
-    <t>72,98%</t>
-  </si>
-  <si>
-    <t>49,52%</t>
-  </si>
-  <si>
-    <t>16,73%</t>
-  </si>
-  <si>
-    <t>69,75%</t>
-  </si>
-  <si>
-    <t>68,28%</t>
-  </si>
-  <si>
-    <t>11,99%</t>
-  </si>
-  <si>
-    <t>58,74%</t>
-  </si>
-  <si>
-    <t>29,3%</t>
-  </si>
-  <si>
-    <t>72,99%</t>
-  </si>
-  <si>
-    <t>38,42%</t>
-  </si>
-  <si>
-    <t>24,33%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>29,39%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>16,19%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>14,23%</t>
-  </si>
-  <si>
-    <t>59,11%</t>
-  </si>
-  <si>
-    <t>11,58%</t>
-  </si>
-  <si>
-    <t>45,09%</t>
-  </si>
-  <si>
-    <t>12,7%</t>
-  </si>
-  <si>
-    <t>33,17%</t>
-  </si>
-  <si>
-    <t>15,05%</t>
-  </si>
-  <si>
-    <t>66,0%</t>
-  </si>
-  <si>
-    <t>42,56%</t>
-  </si>
-  <si>
-    <t>12,25%</t>
-  </si>
-  <si>
-    <t>36,47%</t>
-  </si>
-  <si>
-    <t>10,28%</t>
-  </si>
-  <si>
-    <t>48,3%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>34,43%</t>
-  </si>
-  <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>24,75%</t>
-  </si>
-  <si>
-    <t>67,0%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>25,92%</t>
-  </si>
-  <si>
-    <t>30,06%</t>
-  </si>
-  <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>61,69%</t>
-  </si>
-  <si>
-    <t>17,36%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>43,48%</t>
-  </si>
-  <si>
-    <t>17,4%</t>
-  </si>
-  <si>
-    <t>51,44%</t>
-  </si>
-  <si>
-    <t>10,05%</t>
-  </si>
-  <si>
-    <t>35,26%</t>
-  </si>
-  <si>
-    <t>29,71%</t>
-  </si>
-  <si>
-    <t>74,35%</t>
-  </si>
-  <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>41,94%</t>
-  </si>
-  <si>
-    <t>17,79%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>44,51%</t>
-  </si>
-  <si>
-    <t>61,84%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>32,28%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>21,23%</t>
-  </si>
-  <si>
-    <t>85,9%</t>
-  </si>
-  <si>
-    <t>14,7%</t>
-  </si>
-  <si>
-    <t>69,65%</t>
-  </si>
-  <si>
-    <t>13,37%</t>
-  </si>
-  <si>
-    <t>57,62%</t>
-  </si>
-  <si>
-    <t>13,94%</t>
-  </si>
-  <si>
-    <t>72,07%</t>
-  </si>
-  <si>
-    <t>9,65%</t>
-  </si>
-  <si>
-    <t>49,6%</t>
-  </si>
-  <si>
-    <t>56,52%</t>
-  </si>
-  <si>
-    <t>43,22%</t>
-  </si>
-  <si>
-    <t>86,11%</t>
-  </si>
-  <si>
-    <t>47,31%</t>
-  </si>
-  <si>
-    <t>14,75%</t>
-  </si>
-  <si>
-    <t>87,34%</t>
-  </si>
-  <si>
-    <t>21,61%</t>
-  </si>
-  <si>
-    <t>80,0%</t>
-  </si>
-  <si>
-    <t>14,97%</t>
-  </si>
-  <si>
-    <t>59,46%</t>
-  </si>
-  <si>
-    <t>37,99%</t>
-  </si>
-  <si>
-    <t>19,01%</t>
-  </si>
-  <si>
-    <t>62,01%</t>
-  </si>
-  <si>
-    <t>31,04%</t>
-  </si>
-  <si>
-    <t>83,08%</t>
-  </si>
-  <si>
-    <t>62,03%</t>
-  </si>
-  <si>
-    <t>30,98%</t>
-  </si>
-  <si>
-    <t>83,06%</t>
-  </si>
-  <si>
-    <t>37,97%</t>
-  </si>
-  <si>
-    <t>18,96%</t>
-  </si>
-  <si>
-    <t>79,44%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>22,75%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>28,06%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>28,9%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>21,75%</t>
-  </si>
-  <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>35,91%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>13,82%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>34,94%</t>
-  </si>
-  <si>
-    <t>11,45%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>22,65%</t>
-  </si>
-  <si>
-    <t>12,89%</t>
-  </si>
-  <si>
-    <t>34,25%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>36,49%</t>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>38,05%</t>
   </si>
   <si>
     <t>14,14%</t>
   </si>
   <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>28,41%</t>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>29,28%</t>
   </si>
   <si>
     <t>4,88%</t>
   </si>
   <si>
-    <t>26,31%</t>
+    <t>21,21%</t>
   </si>
   <si>
     <t>7,01%</t>
   </si>
   <si>
-    <t>30,52%</t>
+    <t>39,22%</t>
   </si>
   <si>
     <t>6,05%</t>
   </si>
   <si>
-    <t>21,57%</t>
+    <t>22,14%</t>
   </si>
   <si>
     <t>4,68%</t>
   </si>
   <si>
-    <t>21,93%</t>
+    <t>20,72%</t>
   </si>
   <si>
     <t>6,99%</t>
   </si>
   <si>
-    <t>27,43%</t>
+    <t>23,31%</t>
   </si>
   <si>
     <t>5,94%</t>
   </si>
   <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>16,63%</t>
-  </si>
-  <si>
-    <t>42,68%</t>
+    <t>17,41%</t>
+  </si>
+  <si>
+    <t>42,18%</t>
   </si>
   <si>
     <t>11,18%</t>
   </si>
   <si>
-    <t>34,36%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
+    <t>37,79%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>27,86%</t>
   </si>
   <si>
     <t>5,3%</t>
@@ -1200,13 +1188,10 @@
     <t>16,36%</t>
   </si>
   <si>
-    <t>47,03%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>29,37%</t>
+    <t>46,3%</t>
+  </si>
+  <si>
+    <t>26,89%</t>
   </si>
   <si>
     <t>10,46%</t>
@@ -1215,13 +1200,13 @@
     <t>3,13%</t>
   </si>
   <si>
-    <t>26,95%</t>
+    <t>27,1%</t>
   </si>
   <si>
     <t>5,18%</t>
   </si>
   <si>
-    <t>26,9%</t>
+    <t>23,87%</t>
   </si>
   <si>
     <t>15,47%</t>
@@ -1230,52 +1215,61 @@
     <t>3,78%</t>
   </si>
   <si>
-    <t>39,23%</t>
+    <t>38,24%</t>
   </si>
   <si>
     <t>10,81%</t>
   </si>
   <si>
-    <t>3,5%</t>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>26,11%</t>
   </si>
   <si>
     <t>8,95%</t>
   </si>
   <si>
-    <t>27,67%</t>
+    <t>26,73%</t>
   </si>
   <si>
     <t>4,9%</t>
   </si>
   <si>
+    <t>15,55%</t>
+  </si>
+  <si>
     <t>13,52%</t>
   </si>
   <si>
-    <t>41,49%</t>
+    <t>41,32%</t>
   </si>
   <si>
     <t>4,67%</t>
   </si>
   <si>
-    <t>29,1%</t>
+    <t>30,28%</t>
   </si>
   <si>
     <t>8,68%</t>
   </si>
   <si>
-    <t>23,51%</t>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>21,03%</t>
   </si>
   <si>
     <t>7,14%</t>
   </si>
   <si>
-    <t>32,63%</t>
+    <t>41,48%</t>
   </si>
   <si>
     <t>3,23%</t>
   </si>
   <si>
-    <t>15,99%</t>
+    <t>18,35%</t>
   </si>
 </sst>
 </file>
@@ -1687,7 +1681,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2A3E25A-8ECF-4F39-AC03-53F487215184}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D89A534-BD04-49FB-BEC7-4455F09FF3D9}">
   <dimension ref="A1:Q100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -4977,13 +4971,13 @@
         <v>934</v>
       </c>
       <c r="O66" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="P66" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q66" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="P66" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q66" s="7" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.3">
@@ -5039,7 +5033,7 @@
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B68" s="5">
         <v>2015</v>
@@ -5306,13 +5300,13 @@
         <v>1128</v>
       </c>
       <c r="E73" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="F73" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G73" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="F73" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G73" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="H73" s="7">
         <v>1</v>
@@ -5321,13 +5315,13 @@
         <v>1100</v>
       </c>
       <c r="J73" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="K73" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L73" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="K73" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L73" s="7" t="s">
-        <v>120</v>
       </c>
       <c r="M73" s="7">
         <v>2</v>
@@ -5336,13 +5330,13 @@
         <v>2227</v>
       </c>
       <c r="O73" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="P73" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q73" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="P73" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q73" s="7" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.3">
@@ -5357,13 +5351,13 @@
         <v>1255</v>
       </c>
       <c r="E74" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="F74" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G74" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="F74" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G74" s="7" t="s">
-        <v>124</v>
       </c>
       <c r="H74" s="7">
         <v>1</v>
@@ -5372,13 +5366,13 @@
         <v>842</v>
       </c>
       <c r="J74" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="K74" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L74" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="K74" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L74" s="7" t="s">
-        <v>126</v>
       </c>
       <c r="M74" s="7">
         <v>2</v>
@@ -5387,13 +5381,13 @@
         <v>2098</v>
       </c>
       <c r="O74" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="P74" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q74" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="P74" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q74" s="7" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="75" spans="1:17" x14ac:dyDescent="0.3">
@@ -5423,13 +5417,13 @@
         <v>1540</v>
       </c>
       <c r="J75" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="K75" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L75" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="K75" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L75" s="7" t="s">
-        <v>130</v>
       </c>
       <c r="M75" s="7">
         <v>2</v>
@@ -5438,13 +5432,13 @@
         <v>1540</v>
       </c>
       <c r="O75" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="P75" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q75" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="P75" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q75" s="7" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="76" spans="1:17" x14ac:dyDescent="0.3">
@@ -5474,13 +5468,13 @@
         <v>1100</v>
       </c>
       <c r="J76" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K76" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L76" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="M76" s="7">
         <v>1</v>
@@ -5489,13 +5483,13 @@
         <v>1100</v>
       </c>
       <c r="O76" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="P76" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q76" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="P76" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q76" s="7" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="77" spans="1:17" x14ac:dyDescent="0.3">
@@ -5510,13 +5504,13 @@
         <v>2263</v>
       </c>
       <c r="E77" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="F77" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G77" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="F77" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G77" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="H77" s="7">
         <v>1</v>
@@ -5525,13 +5519,13 @@
         <v>1058</v>
       </c>
       <c r="J77" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="K77" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L77" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="K77" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L77" s="7" t="s">
-        <v>139</v>
       </c>
       <c r="M77" s="7">
         <v>3</v>
@@ -5540,13 +5534,13 @@
         <v>3321</v>
       </c>
       <c r="O77" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="P77" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="P77" s="7" t="s">
+      <c r="Q77" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="Q77" s="7" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.3">
@@ -5576,13 +5570,13 @@
         <v>842</v>
       </c>
       <c r="J78" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K78" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L78" s="7" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="M78" s="7">
         <v>3</v>
@@ -5591,13 +5585,13 @@
         <v>3042</v>
       </c>
       <c r="O78" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="P78" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="P78" s="7" t="s">
+      <c r="Q78" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="Q78" s="7" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="79" spans="1:17" x14ac:dyDescent="0.3">
@@ -5663,13 +5657,13 @@
         <v>2844</v>
       </c>
       <c r="E80" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="F80" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="F80" s="7" t="s">
+      <c r="G80" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="G80" s="7" t="s">
-        <v>150</v>
       </c>
       <c r="H80" s="7">
         <v>0</v>
@@ -5693,13 +5687,13 @@
         <v>2844</v>
       </c>
       <c r="O80" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="P80" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="P80" s="7" t="s">
+      <c r="Q80" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="Q80" s="7" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="81" spans="1:17" x14ac:dyDescent="0.3">
@@ -5714,13 +5708,13 @@
         <v>942</v>
       </c>
       <c r="E81" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="F81" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G81" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="F81" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G81" s="7" t="s">
-        <v>155</v>
       </c>
       <c r="H81" s="7">
         <v>1</v>
@@ -5729,13 +5723,13 @@
         <v>966</v>
       </c>
       <c r="J81" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="K81" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L81" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="K81" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L81" s="7" t="s">
-        <v>157</v>
       </c>
       <c r="M81" s="7">
         <v>2</v>
@@ -5744,13 +5738,13 @@
         <v>1908</v>
       </c>
       <c r="O81" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="P81" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q81" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="P81" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q81" s="7" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="82" spans="1:17" x14ac:dyDescent="0.3">
@@ -5780,13 +5774,13 @@
         <v>1029</v>
       </c>
       <c r="J82" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="K82" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L82" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="K82" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L82" s="7" t="s">
-        <v>161</v>
       </c>
       <c r="M82" s="7">
         <v>1</v>
@@ -5795,13 +5789,13 @@
         <v>1029</v>
       </c>
       <c r="O82" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="P82" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q82" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="P82" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q82" s="7" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="83" spans="1:17" x14ac:dyDescent="0.3">
@@ -5875,37 +5869,37 @@
         <v>12</v>
       </c>
       <c r="G84" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="H84" s="7">
+        <v>0</v>
+      </c>
+      <c r="I84" s="7">
+        <v>0</v>
+      </c>
+      <c r="J84" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K84" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L84" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="M84" s="7">
+        <v>0</v>
+      </c>
+      <c r="N84" s="7">
+        <v>0</v>
+      </c>
+      <c r="O84" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P84" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q84" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="H84" s="7">
-        <v>0</v>
-      </c>
-      <c r="I84" s="7">
-        <v>0</v>
-      </c>
-      <c r="J84" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K84" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L84" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="M84" s="7">
-        <v>0</v>
-      </c>
-      <c r="N84" s="7">
-        <v>0</v>
-      </c>
-      <c r="O84" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P84" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q84" s="7" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="85" spans="1:17" x14ac:dyDescent="0.3">
@@ -5926,37 +5920,37 @@
         <v>12</v>
       </c>
       <c r="G85" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="H85" s="7">
+        <v>0</v>
+      </c>
+      <c r="I85" s="7">
+        <v>0</v>
+      </c>
+      <c r="J85" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K85" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L85" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="M85" s="7">
+        <v>0</v>
+      </c>
+      <c r="N85" s="7">
+        <v>0</v>
+      </c>
+      <c r="O85" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P85" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q85" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="H85" s="7">
-        <v>0</v>
-      </c>
-      <c r="I85" s="7">
-        <v>0</v>
-      </c>
-      <c r="J85" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K85" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L85" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="M85" s="7">
-        <v>0</v>
-      </c>
-      <c r="N85" s="7">
-        <v>0</v>
-      </c>
-      <c r="O85" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P85" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q85" s="7" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="86" spans="1:17" x14ac:dyDescent="0.3">
@@ -5977,37 +5971,37 @@
         <v>12</v>
       </c>
       <c r="G86" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="H86" s="7">
+        <v>0</v>
+      </c>
+      <c r="I86" s="7">
+        <v>0</v>
+      </c>
+      <c r="J86" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K86" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L86" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="M86" s="7">
+        <v>0</v>
+      </c>
+      <c r="N86" s="7">
+        <v>0</v>
+      </c>
+      <c r="O86" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P86" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q86" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="H86" s="7">
-        <v>0</v>
-      </c>
-      <c r="I86" s="7">
-        <v>0</v>
-      </c>
-      <c r="J86" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K86" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L86" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="M86" s="7">
-        <v>0</v>
-      </c>
-      <c r="N86" s="7">
-        <v>0</v>
-      </c>
-      <c r="O86" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P86" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q86" s="7" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="87" spans="1:17" x14ac:dyDescent="0.3">
@@ -6028,37 +6022,37 @@
         <v>12</v>
       </c>
       <c r="G87" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="H87" s="7">
+        <v>0</v>
+      </c>
+      <c r="I87" s="7">
+        <v>0</v>
+      </c>
+      <c r="J87" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K87" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L87" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="M87" s="7">
+        <v>0</v>
+      </c>
+      <c r="N87" s="7">
+        <v>0</v>
+      </c>
+      <c r="O87" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P87" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q87" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="H87" s="7">
-        <v>0</v>
-      </c>
-      <c r="I87" s="7">
-        <v>0</v>
-      </c>
-      <c r="J87" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K87" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L87" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="M87" s="7">
-        <v>0</v>
-      </c>
-      <c r="N87" s="7">
-        <v>0</v>
-      </c>
-      <c r="O87" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P87" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q87" s="7" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="88" spans="1:17" x14ac:dyDescent="0.3">
@@ -6079,37 +6073,37 @@
         <v>12</v>
       </c>
       <c r="G88" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="H88" s="7">
+        <v>0</v>
+      </c>
+      <c r="I88" s="7">
+        <v>0</v>
+      </c>
+      <c r="J88" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K88" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L88" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="M88" s="7">
+        <v>0</v>
+      </c>
+      <c r="N88" s="7">
+        <v>0</v>
+      </c>
+      <c r="O88" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P88" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q88" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="H88" s="7">
-        <v>0</v>
-      </c>
-      <c r="I88" s="7">
-        <v>0</v>
-      </c>
-      <c r="J88" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K88" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L88" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="M88" s="7">
-        <v>0</v>
-      </c>
-      <c r="N88" s="7">
-        <v>0</v>
-      </c>
-      <c r="O88" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P88" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q88" s="7" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="89" spans="1:17" x14ac:dyDescent="0.3">
@@ -6124,13 +6118,13 @@
         <v>2051</v>
       </c>
       <c r="E89" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="F89" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G89" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="F89" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G89" s="7" t="s">
-        <v>167</v>
       </c>
       <c r="H89" s="7">
         <v>2</v>
@@ -6139,13 +6133,13 @@
         <v>1938</v>
       </c>
       <c r="J89" s="7" t="s">
-        <v>168</v>
+        <v>44</v>
       </c>
       <c r="K89" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L89" s="7" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="M89" s="7">
         <v>4</v>
@@ -6154,13 +6148,13 @@
         <v>3989</v>
       </c>
       <c r="O89" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="P89" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q89" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="P89" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="Q89" s="7" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="90" spans="1:17" x14ac:dyDescent="0.3">
@@ -6175,13 +6169,13 @@
         <v>3064</v>
       </c>
       <c r="E90" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="F90" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="G90" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="F90" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="G90" s="7" t="s">
-        <v>175</v>
       </c>
       <c r="H90" s="7">
         <v>4</v>
@@ -6190,13 +6184,13 @@
         <v>3946</v>
       </c>
       <c r="J90" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="K90" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="L90" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="K90" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="L90" s="7" t="s">
-        <v>178</v>
       </c>
       <c r="M90" s="7">
         <v>7</v>
@@ -6205,13 +6199,13 @@
         <v>7010</v>
       </c>
       <c r="O90" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="P90" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q90" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="P90" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="Q90" s="7" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="91" spans="1:17" x14ac:dyDescent="0.3">
@@ -6232,7 +6226,7 @@
         <v>12</v>
       </c>
       <c r="G91" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H91" s="7">
         <v>5</v>
@@ -6241,13 +6235,13 @@
         <v>3871</v>
       </c>
       <c r="J91" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="K91" s="7" t="s">
-        <v>183</v>
+        <v>89</v>
       </c>
       <c r="L91" s="7" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="M91" s="7">
         <v>5</v>
@@ -6256,13 +6250,13 @@
         <v>3871</v>
       </c>
       <c r="O91" s="7" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="P91" s="7" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="Q91" s="7" t="s">
-        <v>187</v>
+        <v>109</v>
       </c>
     </row>
     <row r="92" spans="1:17" x14ac:dyDescent="0.3">
@@ -6277,13 +6271,13 @@
         <v>5590</v>
       </c>
       <c r="E92" s="7" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="F92" s="7" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="G92" s="7" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="H92" s="7">
         <v>2</v>
@@ -6292,13 +6286,13 @@
         <v>2003</v>
       </c>
       <c r="J92" s="7" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="K92" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L92" s="7" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="M92" s="7">
         <v>8</v>
@@ -6307,13 +6301,13 @@
         <v>7592</v>
       </c>
       <c r="O92" s="7" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="P92" s="7" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="Q92" s="7" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="93" spans="1:17" x14ac:dyDescent="0.3">
@@ -6328,13 +6322,13 @@
         <v>4187</v>
       </c>
       <c r="E93" s="7" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="F93" s="7" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="G93" s="7" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="H93" s="7">
         <v>2</v>
@@ -6343,13 +6337,13 @@
         <v>1936</v>
       </c>
       <c r="J93" s="7" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="K93" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L93" s="7" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="M93" s="7">
         <v>6</v>
@@ -6358,13 +6352,13 @@
         <v>6123</v>
       </c>
       <c r="O93" s="7" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="P93" s="7" t="s">
-        <v>202</v>
+        <v>72</v>
       </c>
       <c r="Q93" s="7" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
     </row>
     <row r="94" spans="1:17" x14ac:dyDescent="0.3">
@@ -6379,13 +6373,13 @@
         <v>4205</v>
       </c>
       <c r="E94" s="7" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="F94" s="7" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="G94" s="7" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="H94" s="7">
         <v>3</v>
@@ -6394,13 +6388,13 @@
         <v>2522</v>
       </c>
       <c r="J94" s="7" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="K94" s="7" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="L94" s="7" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="M94" s="7">
         <v>7</v>
@@ -6409,13 +6403,13 @@
         <v>6728</v>
       </c>
       <c r="O94" s="7" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="P94" s="7" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="Q94" s="7" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
     </row>
     <row r="95" spans="1:17" x14ac:dyDescent="0.3">
@@ -6430,13 +6424,13 @@
         <v>2062</v>
       </c>
       <c r="E95" s="7" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="F95" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G95" s="7" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="H95" s="7">
         <v>1</v>
@@ -6445,13 +6439,13 @@
         <v>736</v>
       </c>
       <c r="J95" s="7" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="K95" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L95" s="7" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="M95" s="7">
         <v>3</v>
@@ -6460,13 +6454,13 @@
         <v>2798</v>
       </c>
       <c r="O95" s="7" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="P95" s="7" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="Q95" s="7" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
     </row>
     <row r="96" spans="1:17" x14ac:dyDescent="0.3">
@@ -6481,13 +6475,13 @@
         <v>4653</v>
       </c>
       <c r="E96" s="7" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="F96" s="7" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="G96" s="7" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="H96" s="7">
         <v>1</v>
@@ -6496,13 +6490,13 @@
         <v>910</v>
       </c>
       <c r="J96" s="7" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="K96" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L96" s="7" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="M96" s="7">
         <v>6</v>
@@ -6511,13 +6505,13 @@
         <v>5563</v>
       </c>
       <c r="O96" s="7" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="P96" s="7" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="Q96" s="7" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="97" spans="1:17" x14ac:dyDescent="0.3">
@@ -6532,13 +6526,13 @@
         <v>1924</v>
       </c>
       <c r="E97" s="7" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="F97" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G97" s="7" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="H97" s="7">
         <v>5</v>
@@ -6547,13 +6541,13 @@
         <v>4245</v>
       </c>
       <c r="J97" s="7" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="K97" s="7" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="L97" s="7" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="M97" s="7">
         <v>7</v>
@@ -6562,13 +6556,13 @@
         <v>6169</v>
       </c>
       <c r="O97" s="7" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="P97" s="7" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="Q97" s="7" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
     </row>
     <row r="98" spans="1:17" x14ac:dyDescent="0.3">
@@ -6589,7 +6583,7 @@
         <v>12</v>
       </c>
       <c r="G98" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H98" s="7">
         <v>3</v>
@@ -6598,13 +6592,13 @@
         <v>2841</v>
       </c>
       <c r="J98" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="K98" s="7" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="L98" s="7" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="M98" s="7">
         <v>3</v>
@@ -6613,13 +6607,13 @@
         <v>2841</v>
       </c>
       <c r="O98" s="7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="P98" s="7" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="Q98" s="7" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
     </row>
     <row r="99" spans="1:17" x14ac:dyDescent="0.3">
@@ -6675,7 +6669,7 @@
     </row>
     <row r="100" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
     </row>
   </sheetData>
@@ -6696,7 +6690,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4C69F01-0509-4711-94EA-8A07CC32FD67}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E791A410-3E7F-4C7C-B1C4-0BEDAD908A42}">
   <dimension ref="A1:Q100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6713,7 +6707,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7548,7 +7542,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -7593,13 +7587,13 @@
         <v>937</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>244</v>
+        <v>14</v>
       </c>
       <c r="H21" s="7">
         <v>1</v>
@@ -7608,7 +7602,7 @@
         <v>957</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="K21" s="7" t="s">
         <v>11</v>
@@ -7623,13 +7617,13 @@
         <v>1894</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="P21" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -7644,13 +7638,13 @@
         <v>1015</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -7674,13 +7668,13 @@
         <v>1015</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7701,7 +7695,7 @@
         <v>12</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="H23" s="7">
         <v>0</v>
@@ -7752,7 +7746,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="H24" s="7">
         <v>1</v>
@@ -7761,7 +7755,7 @@
         <v>938</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="K24" s="7" t="s">
         <v>11</v>
@@ -7776,13 +7770,13 @@
         <v>938</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="P24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7797,13 +7791,13 @@
         <v>672</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -7827,13 +7821,13 @@
         <v>672</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="P25" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7854,7 +7848,7 @@
         <v>12</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -7905,7 +7899,7 @@
         <v>12</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="H27" s="7">
         <v>0</v>
@@ -7956,7 +7950,7 @@
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -8001,13 +7995,13 @@
         <v>1088</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>14</v>
+        <v>253</v>
       </c>
       <c r="H29" s="7">
         <v>0</v>
@@ -8037,7 +8031,7 @@
         <v>11</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8058,7 +8052,7 @@
         <v>12</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="H30" s="7">
         <v>0</v>
@@ -8109,7 +8103,7 @@
         <v>12</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="H31" s="7">
         <v>0</v>
@@ -8160,7 +8154,7 @@
         <v>12</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -8211,7 +8205,7 @@
         <v>12</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="H33" s="7">
         <v>0</v>
@@ -8262,7 +8256,7 @@
         <v>12</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="H34" s="7">
         <v>0</v>
@@ -8375,13 +8369,13 @@
         <v>759</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="K36" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="M36" s="7">
         <v>1</v>
@@ -8396,7 +8390,7 @@
         <v>11</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -8426,13 +8420,13 @@
         <v>536</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="K37" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="M37" s="7">
         <v>1</v>
@@ -8441,13 +8435,13 @@
         <v>536</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="P37" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -8483,7 +8477,7 @@
         <v>12</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="M38" s="7">
         <v>0</v>
@@ -8498,7 +8492,7 @@
         <v>12</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -8513,13 +8507,13 @@
         <v>892</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>268</v>
+        <v>214</v>
       </c>
       <c r="F39" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="H39" s="7">
         <v>1</v>
@@ -8528,13 +8522,13 @@
         <v>993</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="K39" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="M39" s="7">
         <v>2</v>
@@ -8543,13 +8537,13 @@
         <v>1884</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="P39" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -8564,13 +8558,13 @@
         <v>943</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="F40" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="H40" s="7">
         <v>1</v>
@@ -8585,7 +8579,7 @@
         <v>11</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="M40" s="7">
         <v>2</v>
@@ -8594,13 +8588,13 @@
         <v>1818</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="P40" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -8636,7 +8630,7 @@
         <v>12</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="M41" s="7">
         <v>0</v>
@@ -8651,7 +8645,7 @@
         <v>12</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -8666,13 +8660,13 @@
         <v>644</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="F42" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="H42" s="7">
         <v>1</v>
@@ -8681,13 +8675,13 @@
         <v>564</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="K42" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="M42" s="7">
         <v>2</v>
@@ -8696,13 +8690,13 @@
         <v>1208</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="P42" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -8717,13 +8711,13 @@
         <v>943</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="F43" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="H43" s="7">
         <v>0</v>
@@ -8738,7 +8732,7 @@
         <v>12</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="M43" s="7">
         <v>1</v>
@@ -8747,13 +8741,13 @@
         <v>943</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="P43" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -8789,7 +8783,7 @@
         <v>12</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="M44" s="7">
         <v>0</v>
@@ -8804,7 +8798,7 @@
         <v>12</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -8840,7 +8834,7 @@
         <v>12</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="M45" s="7">
         <v>0</v>
@@ -8855,7 +8849,7 @@
         <v>12</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -8885,13 +8879,13 @@
         <v>2577</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>289</v>
+        <v>208</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="M46" s="7">
         <v>3</v>
@@ -8900,13 +8894,13 @@
         <v>2577</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -8936,13 +8930,13 @@
         <v>1492</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="K47" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="M47" s="7">
         <v>2</v>
@@ -8951,13 +8945,13 @@
         <v>1492</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="P47" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -8972,13 +8966,13 @@
         <v>1862</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="F48" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="H48" s="7">
         <v>1</v>
@@ -8987,13 +8981,13 @@
         <v>778</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="K48" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="M48" s="7">
         <v>3</v>
@@ -9002,13 +8996,13 @@
         <v>2640</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -9023,13 +9017,13 @@
         <v>983</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="F49" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="H49" s="7">
         <v>0</v>
@@ -9044,7 +9038,7 @@
         <v>12</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="M49" s="7">
         <v>1</v>
@@ -9053,13 +9047,13 @@
         <v>983</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="P49" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -9095,7 +9089,7 @@
         <v>12</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="M50" s="7">
         <v>0</v>
@@ -9110,7 +9104,7 @@
         <v>12</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -9199,7 +9193,7 @@
         <v>12</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="M52" s="7">
         <v>0</v>
@@ -9250,7 +9244,7 @@
         <v>12</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="M53" s="7">
         <v>0</v>
@@ -9301,7 +9295,7 @@
         <v>12</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="M54" s="7">
         <v>0</v>
@@ -9346,13 +9340,13 @@
         <v>915</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="K55" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="M55" s="7">
         <v>1</v>
@@ -9361,13 +9355,13 @@
         <v>915</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="P55" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -9382,7 +9376,7 @@
         <v>832</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>293</v>
+        <v>306</v>
       </c>
       <c r="F56" s="7" t="s">
         <v>11</v>
@@ -9403,7 +9397,7 @@
         <v>12</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="M56" s="7">
         <v>1</v>
@@ -9412,13 +9406,13 @@
         <v>832</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="P56" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -9454,7 +9448,7 @@
         <v>12</v>
       </c>
       <c r="L57" s="7" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="M57" s="7">
         <v>0</v>
@@ -9499,13 +9493,13 @@
         <v>601</v>
       </c>
       <c r="J58" s="7" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="K58" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L58" s="7" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="M58" s="7">
         <v>1</v>
@@ -9514,13 +9508,13 @@
         <v>601</v>
       </c>
       <c r="O58" s="7" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="P58" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q58" s="7" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.3">
@@ -9535,7 +9529,7 @@
         <v>1081</v>
       </c>
       <c r="E59" s="7" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="F59" s="7" t="s">
         <v>11</v>
@@ -9550,13 +9544,13 @@
         <v>1863</v>
       </c>
       <c r="J59" s="7" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="K59" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L59" s="7" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="M59" s="7">
         <v>3</v>
@@ -9565,13 +9559,13 @@
         <v>2943</v>
       </c>
       <c r="O59" s="7" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="P59" s="7" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="Q59" s="7" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.3">
@@ -9607,7 +9601,7 @@
         <v>12</v>
       </c>
       <c r="L60" s="7" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="M60" s="7">
         <v>0</v>
@@ -9652,13 +9646,13 @@
         <v>931</v>
       </c>
       <c r="J61" s="7" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="K61" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L61" s="7" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="M61" s="7">
         <v>1</v>
@@ -9667,13 +9661,13 @@
         <v>931</v>
       </c>
       <c r="O61" s="7" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="P61" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q61" s="7" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.3">
@@ -9709,7 +9703,7 @@
         <v>12</v>
       </c>
       <c r="L62" s="7" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="M62" s="7">
         <v>0</v>
@@ -9760,7 +9754,7 @@
         <v>12</v>
       </c>
       <c r="L63" s="7" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="M63" s="7">
         <v>0</v>
@@ -9811,7 +9805,7 @@
         <v>12</v>
       </c>
       <c r="L64" s="7" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="M64" s="7">
         <v>0</v>
@@ -9862,7 +9856,7 @@
         <v>12</v>
       </c>
       <c r="L65" s="7" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="M65" s="7">
         <v>0</v>
@@ -9913,7 +9907,7 @@
         <v>12</v>
       </c>
       <c r="L66" s="7" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="M66" s="7">
         <v>0</v>
@@ -9984,7 +9978,7 @@
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B68" s="5">
         <v>2015</v>
@@ -10032,7 +10026,7 @@
         <v>12</v>
       </c>
       <c r="Q68" s="7" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.3">
@@ -10083,7 +10077,7 @@
         <v>12</v>
       </c>
       <c r="Q69" s="7" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.3">
@@ -10134,7 +10128,7 @@
         <v>12</v>
       </c>
       <c r="Q70" s="7" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.3">
@@ -10185,7 +10179,7 @@
         <v>12</v>
       </c>
       <c r="Q71" s="7" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.3">
@@ -10215,7 +10209,7 @@
         <v>715</v>
       </c>
       <c r="J72" s="7" t="s">
-        <v>329</v>
+        <v>57</v>
       </c>
       <c r="K72" s="7" t="s">
         <v>11</v>
@@ -10230,13 +10224,13 @@
         <v>715</v>
       </c>
       <c r="O72" s="7" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="P72" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q72" s="7" t="s">
-        <v>14</v>
+        <v>324</v>
       </c>
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.3">
@@ -10266,7 +10260,7 @@
         <v>1167</v>
       </c>
       <c r="J73" s="7" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="K73" s="7" t="s">
         <v>11</v>
@@ -10281,13 +10275,13 @@
         <v>1167</v>
       </c>
       <c r="O73" s="7" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="P73" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q73" s="7" t="s">
-        <v>333</v>
+        <v>14</v>
       </c>
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.3">
@@ -10338,7 +10332,7 @@
         <v>12</v>
       </c>
       <c r="Q74" s="7" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
     </row>
     <row r="75" spans="1:17" x14ac:dyDescent="0.3">
@@ -10389,7 +10383,7 @@
         <v>12</v>
       </c>
       <c r="Q75" s="7" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
     </row>
     <row r="76" spans="1:17" x14ac:dyDescent="0.3">
@@ -10440,7 +10434,7 @@
         <v>12</v>
       </c>
       <c r="Q76" s="7" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
     </row>
     <row r="77" spans="1:17" x14ac:dyDescent="0.3">
@@ -10455,7 +10449,7 @@
         <v>1165</v>
       </c>
       <c r="E77" s="7" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="F77" s="7" t="s">
         <v>11</v>
@@ -10485,13 +10479,13 @@
         <v>1165</v>
       </c>
       <c r="O77" s="7" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="P77" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q77" s="7" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.3">
@@ -10506,7 +10500,7 @@
         <v>713</v>
       </c>
       <c r="E78" s="7" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="F78" s="7" t="s">
         <v>11</v>
@@ -10536,13 +10530,13 @@
         <v>713</v>
       </c>
       <c r="O78" s="7" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="P78" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q78" s="7" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
     </row>
     <row r="79" spans="1:17" x14ac:dyDescent="0.3">
@@ -10593,7 +10587,7 @@
         <v>12</v>
       </c>
       <c r="Q79" s="7" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
     </row>
     <row r="80" spans="1:17" x14ac:dyDescent="0.3">
@@ -10644,7 +10638,7 @@
         <v>12</v>
       </c>
       <c r="Q80" s="7" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
     </row>
     <row r="81" spans="1:17" x14ac:dyDescent="0.3">
@@ -10695,7 +10689,7 @@
         <v>12</v>
       </c>
       <c r="Q81" s="7" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
     </row>
     <row r="82" spans="1:17" x14ac:dyDescent="0.3">
@@ -10746,7 +10740,7 @@
         <v>12</v>
       </c>
       <c r="Q82" s="7" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
     </row>
     <row r="83" spans="1:17" x14ac:dyDescent="0.3">
@@ -10820,7 +10814,7 @@
         <v>12</v>
       </c>
       <c r="G84" s="7" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="H84" s="7">
         <v>1</v>
@@ -10829,13 +10823,13 @@
         <v>759</v>
       </c>
       <c r="J84" s="7" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="K84" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L84" s="7" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="M84" s="7">
         <v>1</v>
@@ -10844,13 +10838,13 @@
         <v>759</v>
       </c>
       <c r="O84" s="7" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="P84" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q84" s="7" t="s">
-        <v>201</v>
+        <v>337</v>
       </c>
     </row>
     <row r="85" spans="1:17" x14ac:dyDescent="0.3">
@@ -10865,13 +10859,13 @@
         <v>937</v>
       </c>
       <c r="E85" s="7" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="F85" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G85" s="7" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="H85" s="7">
         <v>2</v>
@@ -10880,13 +10874,13 @@
         <v>1492</v>
       </c>
       <c r="J85" s="7" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="K85" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L85" s="7" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="M85" s="7">
         <v>3</v>
@@ -10895,13 +10889,13 @@
         <v>2429</v>
       </c>
       <c r="O85" s="7" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="P85" s="7" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="Q85" s="7" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
     </row>
     <row r="86" spans="1:17" x14ac:dyDescent="0.3">
@@ -10916,13 +10910,13 @@
         <v>1015</v>
       </c>
       <c r="E86" s="7" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="F86" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G86" s="7" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="H86" s="7">
         <v>0</v>
@@ -10937,7 +10931,7 @@
         <v>12</v>
       </c>
       <c r="L86" s="7" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="M86" s="7">
         <v>1</v>
@@ -10946,13 +10940,13 @@
         <v>1015</v>
       </c>
       <c r="O86" s="7" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="P86" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q86" s="7" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
     </row>
     <row r="87" spans="1:17" x14ac:dyDescent="0.3">
@@ -10967,13 +10961,13 @@
         <v>892</v>
       </c>
       <c r="E87" s="7" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="F87" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G87" s="7" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="H87" s="7">
         <v>2</v>
@@ -10982,13 +10976,13 @@
         <v>1908</v>
       </c>
       <c r="J87" s="7" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="K87" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L87" s="7" t="s">
-        <v>297</v>
+        <v>353</v>
       </c>
       <c r="M87" s="7">
         <v>3</v>
@@ -11000,10 +10994,10 @@
         <v>91</v>
       </c>
       <c r="P87" s="7" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="Q87" s="7" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
     </row>
     <row r="88" spans="1:17" x14ac:dyDescent="0.3">
@@ -11018,13 +11012,13 @@
         <v>1775</v>
       </c>
       <c r="E88" s="7" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="F88" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G88" s="7" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="H88" s="7">
         <v>3</v>
@@ -11033,13 +11027,13 @@
         <v>2528</v>
       </c>
       <c r="J88" s="7" t="s">
-        <v>216</v>
+        <v>358</v>
       </c>
       <c r="K88" s="7" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="L88" s="7" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="M88" s="7">
         <v>5</v>
@@ -11048,13 +11042,13 @@
         <v>4303</v>
       </c>
       <c r="O88" s="7" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="P88" s="7" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="Q88" s="7" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
     </row>
     <row r="89" spans="1:17" x14ac:dyDescent="0.3">
@@ -11069,13 +11063,13 @@
         <v>672</v>
       </c>
       <c r="E89" s="7" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="F89" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G89" s="7" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="H89" s="7">
         <v>1</v>
@@ -11084,13 +11078,13 @@
         <v>1167</v>
       </c>
       <c r="J89" s="7" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="K89" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L89" s="7" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="M89" s="7">
         <v>2</v>
@@ -11099,13 +11093,13 @@
         <v>1840</v>
       </c>
       <c r="O89" s="7" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="P89" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q89" s="7" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
     </row>
     <row r="90" spans="1:17" x14ac:dyDescent="0.3">
@@ -11120,13 +11114,13 @@
         <v>644</v>
       </c>
       <c r="E90" s="7" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="F90" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G90" s="7" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="H90" s="7">
         <v>2</v>
@@ -11135,13 +11129,13 @@
         <v>1165</v>
       </c>
       <c r="J90" s="7" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="K90" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L90" s="7" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="M90" s="7">
         <v>3</v>
@@ -11150,13 +11144,13 @@
         <v>1809</v>
       </c>
       <c r="O90" s="7" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="P90" s="7" t="s">
-        <v>379</v>
+        <v>169</v>
       </c>
       <c r="Q90" s="7" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
     </row>
     <row r="91" spans="1:17" x14ac:dyDescent="0.3">
@@ -11171,13 +11165,13 @@
         <v>2024</v>
       </c>
       <c r="E91" s="7" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="F91" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G91" s="7" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="H91" s="7">
         <v>2</v>
@@ -11186,13 +11180,13 @@
         <v>1863</v>
       </c>
       <c r="J91" s="7" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="K91" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L91" s="7" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="M91" s="7">
         <v>4</v>
@@ -11201,13 +11195,13 @@
         <v>3887</v>
       </c>
       <c r="O91" s="7" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="P91" s="7" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="Q91" s="7" t="s">
-        <v>169</v>
+        <v>380</v>
       </c>
     </row>
     <row r="92" spans="1:17" x14ac:dyDescent="0.3">
@@ -11228,7 +11222,7 @@
         <v>12</v>
       </c>
       <c r="G92" s="7" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="H92" s="7">
         <v>0</v>
@@ -11243,7 +11237,7 @@
         <v>12</v>
       </c>
       <c r="L92" s="7" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="M92" s="7">
         <v>0</v>
@@ -11258,7 +11252,7 @@
         <v>12</v>
       </c>
       <c r="Q92" s="7" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
     </row>
     <row r="93" spans="1:17" x14ac:dyDescent="0.3">
@@ -11273,13 +11267,13 @@
         <v>2253</v>
       </c>
       <c r="E93" s="7" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="F93" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G93" s="7" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="H93" s="7">
         <v>1</v>
@@ -11288,13 +11282,13 @@
         <v>931</v>
       </c>
       <c r="J93" s="7" t="s">
-        <v>388</v>
+        <v>226</v>
       </c>
       <c r="K93" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L93" s="7" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="M93" s="7">
         <v>3</v>
@@ -11303,13 +11297,13 @@
         <v>3185</v>
       </c>
       <c r="O93" s="7" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="P93" s="7" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="Q93" s="7" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
     </row>
     <row r="94" spans="1:17" x14ac:dyDescent="0.3">
@@ -11324,13 +11318,13 @@
         <v>713</v>
       </c>
       <c r="E94" s="7" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="F94" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G94" s="7" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="H94" s="7">
         <v>3</v>
@@ -11339,13 +11333,13 @@
         <v>2577</v>
       </c>
       <c r="J94" s="7" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="K94" s="7" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="L94" s="7" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="M94" s="7">
         <v>4</v>
@@ -11354,13 +11348,13 @@
         <v>3290</v>
       </c>
       <c r="O94" s="7" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="P94" s="7" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="Q94" s="7" t="s">
-        <v>200</v>
+        <v>395</v>
       </c>
     </row>
     <row r="95" spans="1:17" x14ac:dyDescent="0.3">
@@ -11381,7 +11375,7 @@
         <v>12</v>
       </c>
       <c r="G95" s="7" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="H95" s="7">
         <v>2</v>
@@ -11390,13 +11384,13 @@
         <v>1492</v>
       </c>
       <c r="J95" s="7" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="K95" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L95" s="7" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="M95" s="7">
         <v>2</v>
@@ -11405,13 +11399,13 @@
         <v>1492</v>
       </c>
       <c r="O95" s="7" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="P95" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q95" s="7" t="s">
-        <v>265</v>
+        <v>399</v>
       </c>
     </row>
     <row r="96" spans="1:17" x14ac:dyDescent="0.3">
@@ -11426,13 +11420,13 @@
         <v>1862</v>
       </c>
       <c r="E96" s="7" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="F96" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G96" s="7" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="H96" s="7">
         <v>1</v>
@@ -11441,13 +11435,13 @@
         <v>778</v>
       </c>
       <c r="J96" s="7" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="K96" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L96" s="7" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="M96" s="7">
         <v>3</v>
@@ -11456,13 +11450,13 @@
         <v>2640</v>
       </c>
       <c r="O96" s="7" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="P96" s="7" t="s">
-        <v>343</v>
+        <v>405</v>
       </c>
       <c r="Q96" s="7" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="97" spans="1:17" x14ac:dyDescent="0.3">
@@ -11477,13 +11471,13 @@
         <v>983</v>
       </c>
       <c r="E97" s="7" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="F97" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G97" s="7" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="H97" s="7">
         <v>0</v>
@@ -11498,7 +11492,7 @@
         <v>12</v>
       </c>
       <c r="L97" s="7" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="M97" s="7">
         <v>1</v>
@@ -11507,13 +11501,13 @@
         <v>983</v>
       </c>
       <c r="O97" s="7" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="P97" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q97" s="7" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="98" spans="1:17" x14ac:dyDescent="0.3">
@@ -11534,7 +11528,7 @@
         <v>12</v>
       </c>
       <c r="G98" s="7" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="H98" s="7">
         <v>0</v>
@@ -11549,7 +11543,7 @@
         <v>12</v>
       </c>
       <c r="L98" s="7" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="M98" s="7">
         <v>0</v>
@@ -11564,7 +11558,7 @@
         <v>12</v>
       </c>
       <c r="Q98" s="7" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
     </row>
     <row r="99" spans="1:17" x14ac:dyDescent="0.3">
@@ -11620,7 +11614,7 @@
     </row>
     <row r="100" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
     </row>
   </sheetData>
